--- a/tests/eindhoven-500/reference/resultaten/werk/alle groepen/herkomsten/restdag/Pot_totaal_OV_Fiets.xlsx
+++ b/tests/eindhoven-500/reference/resultaten/werk/alle groepen/herkomsten/restdag/Pot_totaal_OV_Fiets.xlsx
@@ -391,7 +391,7 @@
         <v>13293.79464913614</v>
       </c>
       <c r="C2">
-        <v>14672.16374958038</v>
+        <v>14672.16374958037</v>
       </c>
       <c r="D2">
         <v>15501.98883741049</v>
@@ -405,10 +405,10 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>13115.29908141396</v>
+        <v>13115.29908141395</v>
       </c>
       <c r="C3">
-        <v>14614.71977711657</v>
+        <v>14614.71977711656</v>
       </c>
       <c r="D3">
         <v>15676.69693846036</v>
@@ -473,10 +473,10 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>13115.29908141396</v>
+        <v>13115.29908141395</v>
       </c>
       <c r="C7">
-        <v>14614.71977711657</v>
+        <v>14614.71977711656</v>
       </c>
       <c r="D7">
         <v>15676.69693846036</v>
@@ -490,10 +490,10 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>13115.29908141396</v>
+        <v>13115.29908141395</v>
       </c>
       <c r="C8">
-        <v>14614.71977711657</v>
+        <v>14614.71977711656</v>
       </c>
       <c r="D8">
         <v>15676.69693846036</v>
@@ -507,10 +507,10 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>13115.29908141396</v>
+        <v>13115.29908141395</v>
       </c>
       <c r="C9">
-        <v>14614.71977711657</v>
+        <v>14614.71977711656</v>
       </c>
       <c r="D9">
         <v>15676.69693846036</v>
@@ -524,10 +524,10 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>13115.29908141396</v>
+        <v>13115.29908141395</v>
       </c>
       <c r="C10">
-        <v>14614.71977711657</v>
+        <v>14614.71977711656</v>
       </c>
       <c r="D10">
         <v>15676.69693846036</v>
@@ -541,10 +541,10 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>13115.29908141396</v>
+        <v>13115.29908141395</v>
       </c>
       <c r="C11">
-        <v>14614.71977711657</v>
+        <v>14614.71977711656</v>
       </c>
       <c r="D11">
         <v>15676.69693846036</v>
@@ -575,10 +575,10 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>13115.29908141396</v>
+        <v>13115.29908141395</v>
       </c>
       <c r="C13">
-        <v>14614.71977711657</v>
+        <v>14614.71977711656</v>
       </c>
       <c r="D13">
         <v>15676.69693846036</v>
@@ -609,10 +609,10 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>13115.29908141396</v>
+        <v>13115.29908141395</v>
       </c>
       <c r="C15">
-        <v>14614.71977711657</v>
+        <v>14614.71977711656</v>
       </c>
       <c r="D15">
         <v>15676.69693846036</v>
@@ -629,7 +629,7 @@
         <v>13293.79464913614</v>
       </c>
       <c r="C16">
-        <v>14672.16374958038</v>
+        <v>14672.16374958037</v>
       </c>
       <c r="D16">
         <v>15501.98883741049</v>
@@ -660,10 +660,10 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>13115.29908141396</v>
+        <v>13115.29908141395</v>
       </c>
       <c r="C18">
-        <v>14614.71977711657</v>
+        <v>14614.71977711656</v>
       </c>
       <c r="D18">
         <v>15676.69693846036</v>
@@ -680,7 +680,7 @@
         <v>13293.79464913614</v>
       </c>
       <c r="C19">
-        <v>14672.16374958038</v>
+        <v>14672.16374958037</v>
       </c>
       <c r="D19">
         <v>15501.98883741049</v>
@@ -697,7 +697,7 @@
         <v>13293.79464913614</v>
       </c>
       <c r="C20">
-        <v>14672.16374958038</v>
+        <v>14672.16374958037</v>
       </c>
       <c r="D20">
         <v>15501.98883741049</v>
@@ -714,7 +714,7 @@
         <v>13293.79464913614</v>
       </c>
       <c r="C21">
-        <v>14672.16374958038</v>
+        <v>14672.16374958037</v>
       </c>
       <c r="D21">
         <v>15501.98883741049</v>
@@ -731,10 +731,10 @@
         <v>14923.46600648291</v>
       </c>
       <c r="C22">
-        <v>15471.58705718012</v>
+        <v>15471.58705718013</v>
       </c>
       <c r="D22">
-        <v>13634.27020426736</v>
+        <v>13634.27020426737</v>
       </c>
       <c r="E22">
         <v>11711.82955795839</v>
@@ -748,7 +748,7 @@
         <v>13293.79464913614</v>
       </c>
       <c r="C23">
-        <v>14672.16374958038</v>
+        <v>14672.16374958037</v>
       </c>
       <c r="D23">
         <v>15501.98883741049</v>
@@ -762,16 +762,16 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <v>7444.412852850553</v>
+        <v>7444.412852850556</v>
       </c>
       <c r="C24">
-        <v>7820.286918107093</v>
+        <v>7820.286918107094</v>
       </c>
       <c r="D24">
-        <v>7838.326186340565</v>
+        <v>7838.326186340567</v>
       </c>
       <c r="E24">
-        <v>7594.95491366946</v>
+        <v>7594.954913669458</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -779,16 +779,16 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <v>7444.412852850553</v>
+        <v>7444.412852850556</v>
       </c>
       <c r="C25">
-        <v>7820.286918107093</v>
+        <v>7820.286918107094</v>
       </c>
       <c r="D25">
-        <v>7838.326186340565</v>
+        <v>7838.326186340567</v>
       </c>
       <c r="E25">
-        <v>7594.95491366946</v>
+        <v>7594.954913669458</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -796,16 +796,16 @@
         <v>25</v>
       </c>
       <c r="B26">
-        <v>7444.412852850553</v>
+        <v>7444.412852850556</v>
       </c>
       <c r="C26">
-        <v>7820.286918107093</v>
+        <v>7820.286918107094</v>
       </c>
       <c r="D26">
-        <v>7838.326186340565</v>
+        <v>7838.326186340567</v>
       </c>
       <c r="E26">
-        <v>7594.95491366946</v>
+        <v>7594.954913669458</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -813,7 +813,7 @@
         <v>26</v>
       </c>
       <c r="B27">
-        <v>13898.49247271382</v>
+        <v>13898.49247271383</v>
       </c>
       <c r="C27">
         <v>14632.81227925039</v>
@@ -830,7 +830,7 @@
         <v>27</v>
       </c>
       <c r="B28">
-        <v>13898.49247271382</v>
+        <v>13898.49247271383</v>
       </c>
       <c r="C28">
         <v>14632.81227925039</v>
@@ -847,7 +847,7 @@
         <v>28</v>
       </c>
       <c r="B29">
-        <v>13898.49247271382</v>
+        <v>13898.49247271383</v>
       </c>
       <c r="C29">
         <v>14632.81227925039</v>
@@ -864,13 +864,13 @@
         <v>29</v>
       </c>
       <c r="B30">
-        <v>25116.92631048837</v>
+        <v>25116.92631048836</v>
       </c>
       <c r="C30">
         <v>25929.68329494612</v>
       </c>
       <c r="D30">
-        <v>28987.24673087001</v>
+        <v>28987.24673087002</v>
       </c>
       <c r="E30">
         <v>37341.8949604657</v>
@@ -881,13 +881,13 @@
         <v>30</v>
       </c>
       <c r="B31">
-        <v>25116.92631048837</v>
+        <v>25116.92631048836</v>
       </c>
       <c r="C31">
         <v>25929.68329494612</v>
       </c>
       <c r="D31">
-        <v>28987.24673087001</v>
+        <v>28987.24673087002</v>
       </c>
       <c r="E31">
         <v>37341.8949604657</v>
@@ -898,13 +898,13 @@
         <v>31</v>
       </c>
       <c r="B32">
-        <v>25116.92631048837</v>
+        <v>25116.92631048836</v>
       </c>
       <c r="C32">
         <v>25929.68329494612</v>
       </c>
       <c r="D32">
-        <v>28987.24673087001</v>
+        <v>28987.24673087002</v>
       </c>
       <c r="E32">
         <v>37341.8949604657</v>
@@ -915,13 +915,13 @@
         <v>32</v>
       </c>
       <c r="B33">
-        <v>25116.92631048837</v>
+        <v>25116.92631048836</v>
       </c>
       <c r="C33">
         <v>25929.68329494612</v>
       </c>
       <c r="D33">
-        <v>28987.24673087001</v>
+        <v>28987.24673087002</v>
       </c>
       <c r="E33">
         <v>37341.8949604657</v>
@@ -932,13 +932,13 @@
         <v>33</v>
       </c>
       <c r="B34">
-        <v>29596.55835120174</v>
+        <v>29596.55835120175</v>
       </c>
       <c r="C34">
-        <v>29962.60449101831</v>
+        <v>29962.6044910183</v>
       </c>
       <c r="D34">
-        <v>31901.63482401131</v>
+        <v>31901.6348240113</v>
       </c>
       <c r="E34">
         <v>39797.55695405421</v>
@@ -952,10 +952,10 @@
         <v>30145.9289564211</v>
       </c>
       <c r="C35">
-        <v>30499.78306076008</v>
+        <v>30499.78306076006</v>
       </c>
       <c r="D35">
-        <v>32145.9030057062</v>
+        <v>32145.90300570618</v>
       </c>
       <c r="E35">
         <v>40012.43797293644</v>
@@ -966,16 +966,16 @@
         <v>35</v>
       </c>
       <c r="B36">
-        <v>21926.00989270641</v>
+        <v>21926.0098927064</v>
       </c>
       <c r="C36">
-        <v>23098.45847199766</v>
+        <v>23098.45847199765</v>
       </c>
       <c r="D36">
-        <v>26964.88343360125</v>
+        <v>26964.88343360124</v>
       </c>
       <c r="E36">
-        <v>35852.95581980715</v>
+        <v>35852.95581980717</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -986,10 +986,10 @@
         <v>25377.06388009662</v>
       </c>
       <c r="C37">
-        <v>26163.42834176358</v>
+        <v>26163.42834176356</v>
       </c>
       <c r="D37">
-        <v>29220.01929817198</v>
+        <v>29220.01929817199</v>
       </c>
       <c r="E37">
         <v>37785.07316374817</v>
@@ -1003,10 +1003,10 @@
         <v>25377.06388009662</v>
       </c>
       <c r="C38">
-        <v>26163.42834176358</v>
+        <v>26163.42834176356</v>
       </c>
       <c r="D38">
-        <v>29220.01929817198</v>
+        <v>29220.01929817199</v>
       </c>
       <c r="E38">
         <v>37785.07316374817</v>
@@ -1017,13 +1017,13 @@
         <v>38</v>
       </c>
       <c r="B39">
-        <v>29596.55835120174</v>
+        <v>29596.55835120175</v>
       </c>
       <c r="C39">
-        <v>29962.60449101831</v>
+        <v>29962.6044910183</v>
       </c>
       <c r="D39">
-        <v>31901.63482401131</v>
+        <v>31901.6348240113</v>
       </c>
       <c r="E39">
         <v>39797.55695405421</v>
@@ -1037,10 +1037,10 @@
         <v>30145.9289564211</v>
       </c>
       <c r="C40">
-        <v>30499.78306076008</v>
+        <v>30499.78306076006</v>
       </c>
       <c r="D40">
-        <v>32145.9030057062</v>
+        <v>32145.90300570618</v>
       </c>
       <c r="E40">
         <v>40012.43797293644</v>
@@ -1054,10 +1054,10 @@
         <v>30145.9289564211</v>
       </c>
       <c r="C41">
-        <v>30499.78306076008</v>
+        <v>30499.78306076006</v>
       </c>
       <c r="D41">
-        <v>32145.9030057062</v>
+        <v>32145.90300570618</v>
       </c>
       <c r="E41">
         <v>40012.43797293644</v>
@@ -1071,13 +1071,13 @@
         <v>22424.97841846163</v>
       </c>
       <c r="C42">
-        <v>23168.13545717591</v>
+        <v>23168.1354571759</v>
       </c>
       <c r="D42">
-        <v>26201.31683058885</v>
+        <v>26201.31683058886</v>
       </c>
       <c r="E42">
-        <v>34382.72355014104</v>
+        <v>34382.72355014103</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1088,13 +1088,13 @@
         <v>22424.97841846163</v>
       </c>
       <c r="C43">
-        <v>23168.13545717591</v>
+        <v>23168.1354571759</v>
       </c>
       <c r="D43">
-        <v>26201.31683058885</v>
+        <v>26201.31683058886</v>
       </c>
       <c r="E43">
-        <v>34382.72355014104</v>
+        <v>34382.72355014103</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1105,7 +1105,7 @@
         <v>20076.90204866023</v>
       </c>
       <c r="C44">
-        <v>20515.34885567849</v>
+        <v>20515.3488556785</v>
       </c>
       <c r="D44">
         <v>22447.29237131698</v>
@@ -1122,13 +1122,13 @@
         <v>20650.00506587217</v>
       </c>
       <c r="C45">
-        <v>21538.86415564404</v>
+        <v>21538.86415564403</v>
       </c>
       <c r="D45">
-        <v>24967.17305976432</v>
+        <v>24967.17305976433</v>
       </c>
       <c r="E45">
-        <v>33426.97601428528</v>
+        <v>33426.97601428526</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1139,10 +1139,10 @@
         <v>25377.06388009662</v>
       </c>
       <c r="C46">
-        <v>26163.42834176358</v>
+        <v>26163.42834176356</v>
       </c>
       <c r="D46">
-        <v>29220.01929817198</v>
+        <v>29220.01929817199</v>
       </c>
       <c r="E46">
         <v>37785.07316374817</v>
@@ -1153,16 +1153,16 @@
         <v>46</v>
       </c>
       <c r="B47">
-        <v>21926.00989270641</v>
+        <v>21926.0098927064</v>
       </c>
       <c r="C47">
-        <v>23098.45847199766</v>
+        <v>23098.45847199765</v>
       </c>
       <c r="D47">
-        <v>26964.88343360125</v>
+        <v>26964.88343360124</v>
       </c>
       <c r="E47">
-        <v>35852.95581980715</v>
+        <v>35852.95581980717</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1173,13 +1173,13 @@
         <v>20650.00506587217</v>
       </c>
       <c r="C48">
-        <v>21538.86415564404</v>
+        <v>21538.86415564403</v>
       </c>
       <c r="D48">
-        <v>24967.17305976432</v>
+        <v>24967.17305976433</v>
       </c>
       <c r="E48">
-        <v>33426.97601428528</v>
+        <v>33426.97601428526</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1190,13 +1190,13 @@
         <v>15622.11226857053</v>
       </c>
       <c r="C49">
-        <v>17356.28603950528</v>
+        <v>17356.28603950529</v>
       </c>
       <c r="D49">
         <v>17748.49560526445</v>
       </c>
       <c r="E49">
-        <v>17976.32402606144</v>
+        <v>17976.32402606145</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1210,7 +1210,7 @@
         <v>19643.8109160056</v>
       </c>
       <c r="D50">
-        <v>21276.49054464734</v>
+        <v>21276.49054464733</v>
       </c>
       <c r="E50">
         <v>22850.16324663324</v>
@@ -1238,7 +1238,7 @@
         <v>51</v>
       </c>
       <c r="B52">
-        <v>11295.56842396875</v>
+        <v>11295.56842396874</v>
       </c>
       <c r="C52">
         <v>12157.03475341682</v>
@@ -1295,7 +1295,7 @@
         <v>19643.8109160056</v>
       </c>
       <c r="D55">
-        <v>21276.49054464734</v>
+        <v>21276.49054464733</v>
       </c>
       <c r="E55">
         <v>22850.16324663324</v>
@@ -1309,13 +1309,13 @@
         <v>16647.7195657775</v>
       </c>
       <c r="C56">
-        <v>17965.05073429155</v>
+        <v>17965.05073429154</v>
       </c>
       <c r="D56">
-        <v>16705.98404362944</v>
+        <v>16705.98404362945</v>
       </c>
       <c r="E56">
-        <v>15115.17565549006</v>
+        <v>15115.17565549005</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -1326,13 +1326,13 @@
         <v>10460.58140767503</v>
       </c>
       <c r="C57">
-        <v>11149.06354296275</v>
+        <v>11149.06354296276</v>
       </c>
       <c r="D57">
         <v>10351.26149284738</v>
       </c>
       <c r="E57">
-        <v>9337.738688814221</v>
+        <v>9337.738688814219</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -1346,7 +1346,7 @@
         <v>18141.80950658569</v>
       </c>
       <c r="D58">
-        <v>16197.09669947447</v>
+        <v>16197.09669947448</v>
       </c>
       <c r="E58">
         <v>13669.86705762072</v>
@@ -1363,7 +1363,7 @@
         <v>18141.80950658569</v>
       </c>
       <c r="D59">
-        <v>16197.09669947447</v>
+        <v>16197.09669947448</v>
       </c>
       <c r="E59">
         <v>13669.86705762072</v>
@@ -1374,16 +1374,16 @@
         <v>59</v>
       </c>
       <c r="B60">
-        <v>9119.231963238541</v>
+        <v>9119.231963238542</v>
       </c>
       <c r="C60">
-        <v>9728.390114263741</v>
+        <v>9728.390114263739</v>
       </c>
       <c r="D60">
-        <v>9421.952835331662</v>
+        <v>9421.952835331671</v>
       </c>
       <c r="E60">
-        <v>8823.691398459951</v>
+        <v>8823.691398459947</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -1391,16 +1391,16 @@
         <v>60</v>
       </c>
       <c r="B61">
-        <v>9119.231963238541</v>
+        <v>9119.231963238542</v>
       </c>
       <c r="C61">
-        <v>9728.390114263741</v>
+        <v>9728.390114263739</v>
       </c>
       <c r="D61">
-        <v>9421.952835331662</v>
+        <v>9421.952835331671</v>
       </c>
       <c r="E61">
-        <v>8823.691398459951</v>
+        <v>8823.691398459947</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -1408,13 +1408,13 @@
         <v>61</v>
       </c>
       <c r="B62">
-        <v>3404.59662013796</v>
+        <v>3404.596620137959</v>
       </c>
       <c r="C62">
         <v>3597.130031339178</v>
       </c>
       <c r="D62">
-        <v>3808.636871700099</v>
+        <v>3808.636871700098</v>
       </c>
       <c r="E62">
         <v>3731.7127376096</v>
@@ -1425,13 +1425,13 @@
         <v>62</v>
       </c>
       <c r="B63">
-        <v>3404.59662013796</v>
+        <v>3404.596620137959</v>
       </c>
       <c r="C63">
         <v>3597.130031339178</v>
       </c>
       <c r="D63">
-        <v>3808.636871700099</v>
+        <v>3808.636871700098</v>
       </c>
       <c r="E63">
         <v>3731.7127376096</v>
@@ -1482,7 +1482,7 @@
         <v>16093.07090858124</v>
       </c>
       <c r="D66">
-        <v>19764.64317089239</v>
+        <v>19764.64317089238</v>
       </c>
       <c r="E66">
         <v>26115.45334449852</v>
@@ -1499,7 +1499,7 @@
         <v>16093.07090858124</v>
       </c>
       <c r="D67">
-        <v>19764.64317089239</v>
+        <v>19764.64317089238</v>
       </c>
       <c r="E67">
         <v>26115.45334449852</v>
@@ -1516,7 +1516,7 @@
         <v>16093.07090858124</v>
       </c>
       <c r="D68">
-        <v>19764.64317089239</v>
+        <v>19764.64317089238</v>
       </c>
       <c r="E68">
         <v>26115.45334449852</v>
@@ -1533,7 +1533,7 @@
         <v>16093.07090858124</v>
       </c>
       <c r="D69">
-        <v>19764.64317089239</v>
+        <v>19764.64317089238</v>
       </c>
       <c r="E69">
         <v>26115.45334449852</v>
@@ -1550,7 +1550,7 @@
         <v>16093.07090858124</v>
       </c>
       <c r="D70">
-        <v>19764.64317089239</v>
+        <v>19764.64317089238</v>
       </c>
       <c r="E70">
         <v>26115.45334449852</v>
@@ -1561,16 +1561,16 @@
         <v>70</v>
       </c>
       <c r="B71">
-        <v>16291.17357248313</v>
+        <v>16291.17357248314</v>
       </c>
       <c r="C71">
         <v>17730.70665838917</v>
       </c>
       <c r="D71">
-        <v>21772.03737483052</v>
+        <v>21772.03737483051</v>
       </c>
       <c r="E71">
-        <v>28871.36761815461</v>
+        <v>28871.36761815462</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -1584,7 +1584,7 @@
         <v>16093.07090858124</v>
       </c>
       <c r="D72">
-        <v>19764.64317089239</v>
+        <v>19764.64317089238</v>
       </c>
       <c r="E72">
         <v>26115.45334449852</v>
@@ -1601,7 +1601,7 @@
         <v>16093.07090858124</v>
       </c>
       <c r="D73">
-        <v>19764.64317089239</v>
+        <v>19764.64317089238</v>
       </c>
       <c r="E73">
         <v>26115.45334449852</v>
@@ -1618,7 +1618,7 @@
         <v>16093.07090858124</v>
       </c>
       <c r="D74">
-        <v>19764.64317089239</v>
+        <v>19764.64317089238</v>
       </c>
       <c r="E74">
         <v>26115.45334449852</v>
@@ -1652,7 +1652,7 @@
         <v>16093.07090858124</v>
       </c>
       <c r="D76">
-        <v>19764.64317089239</v>
+        <v>19764.64317089238</v>
       </c>
       <c r="E76">
         <v>26115.45334449852</v>
@@ -1663,7 +1663,7 @@
         <v>76</v>
       </c>
       <c r="B77">
-        <v>14076.80538675161</v>
+        <v>14076.8053867516</v>
       </c>
       <c r="C77">
         <v>15280.29566386147</v>
@@ -1680,7 +1680,7 @@
         <v>77</v>
       </c>
       <c r="B78">
-        <v>14076.80538675161</v>
+        <v>14076.8053867516</v>
       </c>
       <c r="C78">
         <v>15280.29566386147</v>
@@ -1697,7 +1697,7 @@
         <v>78</v>
       </c>
       <c r="B79">
-        <v>14076.80538675161</v>
+        <v>14076.8053867516</v>
       </c>
       <c r="C79">
         <v>15280.29566386147</v>
@@ -1714,7 +1714,7 @@
         <v>79</v>
       </c>
       <c r="B80">
-        <v>14076.80538675161</v>
+        <v>14076.8053867516</v>
       </c>
       <c r="C80">
         <v>15280.29566386147</v>
@@ -1808,7 +1808,7 @@
         <v>20674.66724820094</v>
       </c>
       <c r="E85">
-        <v>25014.69354835807</v>
+        <v>25014.69354835809</v>
       </c>
     </row>
     <row r="86" spans="1:5">
@@ -1825,7 +1825,7 @@
         <v>20674.66724820094</v>
       </c>
       <c r="E86">
-        <v>25014.69354835807</v>
+        <v>25014.69354835809</v>
       </c>
     </row>
     <row r="87" spans="1:5">
@@ -1836,13 +1836,13 @@
         <v>20624.68996301674</v>
       </c>
       <c r="C87">
-        <v>20124.23778872492</v>
+        <v>20124.23778872493</v>
       </c>
       <c r="D87">
         <v>19984.3194612297</v>
       </c>
       <c r="E87">
-        <v>23541.59074493252</v>
+        <v>23541.59074493253</v>
       </c>
     </row>
     <row r="88" spans="1:5">
@@ -1853,13 +1853,13 @@
         <v>20624.68996301674</v>
       </c>
       <c r="C88">
-        <v>20124.23778872492</v>
+        <v>20124.23778872493</v>
       </c>
       <c r="D88">
         <v>19984.3194612297</v>
       </c>
       <c r="E88">
-        <v>23541.59074493252</v>
+        <v>23541.59074493253</v>
       </c>
     </row>
     <row r="89" spans="1:5">
@@ -1870,13 +1870,13 @@
         <v>20624.68996301674</v>
       </c>
       <c r="C89">
-        <v>20124.23778872492</v>
+        <v>20124.23778872493</v>
       </c>
       <c r="D89">
         <v>19984.3194612297</v>
       </c>
       <c r="E89">
-        <v>23541.59074493252</v>
+        <v>23541.59074493253</v>
       </c>
     </row>
     <row r="90" spans="1:5">
@@ -1884,13 +1884,13 @@
         <v>89</v>
       </c>
       <c r="B90">
-        <v>49710.56383201249</v>
+        <v>49710.5638320125</v>
       </c>
       <c r="C90">
         <v>50817.54281817707</v>
       </c>
       <c r="D90">
-        <v>55279.68743960115</v>
+        <v>55279.68743960111</v>
       </c>
       <c r="E90">
         <v>66703.48213839672</v>
@@ -1901,13 +1901,13 @@
         <v>90</v>
       </c>
       <c r="B91">
-        <v>49710.56383201249</v>
+        <v>49710.5638320125</v>
       </c>
       <c r="C91">
         <v>50817.54281817707</v>
       </c>
       <c r="D91">
-        <v>55279.68743960115</v>
+        <v>55279.68743960111</v>
       </c>
       <c r="E91">
         <v>66703.48213839672</v>
@@ -1918,13 +1918,13 @@
         <v>91</v>
       </c>
       <c r="B92">
-        <v>49710.56383201249</v>
+        <v>49710.5638320125</v>
       </c>
       <c r="C92">
         <v>50817.54281817707</v>
       </c>
       <c r="D92">
-        <v>55279.68743960115</v>
+        <v>55279.68743960111</v>
       </c>
       <c r="E92">
         <v>66703.48213839672</v>
@@ -1935,13 +1935,13 @@
         <v>92</v>
       </c>
       <c r="B93">
-        <v>49710.56383201249</v>
+        <v>49710.5638320125</v>
       </c>
       <c r="C93">
         <v>50817.54281817707</v>
       </c>
       <c r="D93">
-        <v>55279.68743960115</v>
+        <v>55279.68743960111</v>
       </c>
       <c r="E93">
         <v>66703.48213839672</v>
@@ -1955,13 +1955,13 @@
         <v>50018.58120906678</v>
       </c>
       <c r="C94">
-        <v>51113.73760552202</v>
+        <v>51113.73760552199</v>
       </c>
       <c r="D94">
         <v>54773.27123986898</v>
       </c>
       <c r="E94">
-        <v>65379.63834226054</v>
+        <v>65379.63834226056</v>
       </c>
     </row>
     <row r="95" spans="1:5">
@@ -1969,13 +1969,13 @@
         <v>94</v>
       </c>
       <c r="B95">
-        <v>49710.56383201249</v>
+        <v>49710.5638320125</v>
       </c>
       <c r="C95">
         <v>50817.54281817707</v>
       </c>
       <c r="D95">
-        <v>55279.68743960115</v>
+        <v>55279.68743960111</v>
       </c>
       <c r="E95">
         <v>66703.48213839672</v>
@@ -1986,13 +1986,13 @@
         <v>95</v>
       </c>
       <c r="B96">
-        <v>49710.56383201249</v>
+        <v>49710.5638320125</v>
       </c>
       <c r="C96">
         <v>50817.54281817707</v>
       </c>
       <c r="D96">
-        <v>55279.68743960115</v>
+        <v>55279.68743960111</v>
       </c>
       <c r="E96">
         <v>66703.48213839672</v>
@@ -2003,13 +2003,13 @@
         <v>96</v>
       </c>
       <c r="B97">
-        <v>49710.56383201249</v>
+        <v>49710.5638320125</v>
       </c>
       <c r="C97">
         <v>50817.54281817707</v>
       </c>
       <c r="D97">
-        <v>55279.68743960115</v>
+        <v>55279.68743960111</v>
       </c>
       <c r="E97">
         <v>66703.48213839672</v>
@@ -2020,16 +2020,16 @@
         <v>97</v>
       </c>
       <c r="B98">
-        <v>46614.8112303669</v>
+        <v>46614.81123036691</v>
       </c>
       <c r="C98">
         <v>47216.17120959599</v>
       </c>
       <c r="D98">
-        <v>50833.85858547452</v>
+        <v>50833.85858547453</v>
       </c>
       <c r="E98">
-        <v>61361.06187598987</v>
+        <v>61361.06187598989</v>
       </c>
     </row>
     <row r="99" spans="1:5">
@@ -2037,16 +2037,16 @@
         <v>98</v>
       </c>
       <c r="B99">
-        <v>46614.8112303669</v>
+        <v>46614.81123036691</v>
       </c>
       <c r="C99">
         <v>47216.17120959599</v>
       </c>
       <c r="D99">
-        <v>50833.85858547452</v>
+        <v>50833.85858547453</v>
       </c>
       <c r="E99">
-        <v>61361.06187598987</v>
+        <v>61361.06187598989</v>
       </c>
     </row>
     <row r="100" spans="1:5">
@@ -2054,10 +2054,10 @@
         <v>99</v>
       </c>
       <c r="B100">
-        <v>47200.09791624146</v>
+        <v>47200.09791624144</v>
       </c>
       <c r="C100">
-        <v>47514.9404647659</v>
+        <v>47514.94046476592</v>
       </c>
       <c r="D100">
         <v>50870.6107467269</v>
@@ -2071,10 +2071,10 @@
         <v>100</v>
       </c>
       <c r="B101">
-        <v>47200.09791624146</v>
+        <v>47200.09791624144</v>
       </c>
       <c r="C101">
-        <v>47514.9404647659</v>
+        <v>47514.94046476592</v>
       </c>
       <c r="D101">
         <v>50870.6107467269</v>
@@ -2088,10 +2088,10 @@
         <v>101</v>
       </c>
       <c r="B102">
-        <v>47200.09791624146</v>
+        <v>47200.09791624144</v>
       </c>
       <c r="C102">
-        <v>47514.9404647659</v>
+        <v>47514.94046476592</v>
       </c>
       <c r="D102">
         <v>50870.6107467269</v>
@@ -2105,16 +2105,16 @@
         <v>102</v>
       </c>
       <c r="B103">
-        <v>43581.22645913685</v>
+        <v>43581.22645913687</v>
       </c>
       <c r="C103">
         <v>43886.49733419695</v>
       </c>
       <c r="D103">
-        <v>46816.7635344459</v>
+        <v>46816.76353444591</v>
       </c>
       <c r="E103">
-        <v>56504.40652382634</v>
+        <v>56504.40652382636</v>
       </c>
     </row>
     <row r="104" spans="1:5">
@@ -2122,16 +2122,16 @@
         <v>103</v>
       </c>
       <c r="B104">
-        <v>43581.22645913685</v>
+        <v>43581.22645913687</v>
       </c>
       <c r="C104">
         <v>43886.49733419695</v>
       </c>
       <c r="D104">
-        <v>46816.7635344459</v>
+        <v>46816.76353444591</v>
       </c>
       <c r="E104">
-        <v>56504.40652382634</v>
+        <v>56504.40652382636</v>
       </c>
     </row>
     <row r="105" spans="1:5">
@@ -2142,13 +2142,13 @@
         <v>44892.61026200461</v>
       </c>
       <c r="C105">
-        <v>45222.42971644236</v>
+        <v>45222.42971644235</v>
       </c>
       <c r="D105">
-        <v>48417.96056158653</v>
+        <v>48417.96056158654</v>
       </c>
       <c r="E105">
-        <v>58672.17960720993</v>
+        <v>58672.17960720991</v>
       </c>
     </row>
     <row r="106" spans="1:5">
@@ -2156,16 +2156,16 @@
         <v>105</v>
       </c>
       <c r="B106">
-        <v>43581.22645913685</v>
+        <v>43581.22645913687</v>
       </c>
       <c r="C106">
         <v>43886.49733419695</v>
       </c>
       <c r="D106">
-        <v>46816.7635344459</v>
+        <v>46816.76353444591</v>
       </c>
       <c r="E106">
-        <v>56504.40652382634</v>
+        <v>56504.40652382636</v>
       </c>
     </row>
     <row r="107" spans="1:5">
@@ -2173,16 +2173,16 @@
         <v>106</v>
       </c>
       <c r="B107">
-        <v>43581.22645913685</v>
+        <v>43581.22645913687</v>
       </c>
       <c r="C107">
         <v>43886.49733419695</v>
       </c>
       <c r="D107">
-        <v>46816.7635344459</v>
+        <v>46816.76353444591</v>
       </c>
       <c r="E107">
-        <v>56504.40652382634</v>
+        <v>56504.40652382636</v>
       </c>
     </row>
     <row r="108" spans="1:5">
@@ -2193,13 +2193,13 @@
         <v>44892.61026200461</v>
       </c>
       <c r="C108">
-        <v>45222.42971644236</v>
+        <v>45222.42971644235</v>
       </c>
       <c r="D108">
-        <v>48417.96056158653</v>
+        <v>48417.96056158654</v>
       </c>
       <c r="E108">
-        <v>58672.17960720993</v>
+        <v>58672.17960720991</v>
       </c>
     </row>
     <row r="109" spans="1:5">
@@ -2207,16 +2207,16 @@
         <v>108</v>
       </c>
       <c r="B109">
-        <v>43121.41489697216</v>
+        <v>43121.41489697214</v>
       </c>
       <c r="C109">
-        <v>43406.03041400612</v>
+        <v>43406.03041400613</v>
       </c>
       <c r="D109">
         <v>46010.70157997643</v>
       </c>
       <c r="E109">
-        <v>54971.74843047406</v>
+        <v>54971.74843047405</v>
       </c>
     </row>
     <row r="110" spans="1:5">
@@ -2224,16 +2224,16 @@
         <v>109</v>
       </c>
       <c r="B110">
-        <v>43121.41489697216</v>
+        <v>43121.41489697214</v>
       </c>
       <c r="C110">
-        <v>43406.03041400612</v>
+        <v>43406.03041400613</v>
       </c>
       <c r="D110">
         <v>46010.70157997643</v>
       </c>
       <c r="E110">
-        <v>54971.74843047406</v>
+        <v>54971.74843047405</v>
       </c>
     </row>
     <row r="111" spans="1:5">
@@ -2241,16 +2241,16 @@
         <v>110</v>
       </c>
       <c r="B111">
-        <v>43121.41489697216</v>
+        <v>43121.41489697214</v>
       </c>
       <c r="C111">
-        <v>43406.03041400612</v>
+        <v>43406.03041400613</v>
       </c>
       <c r="D111">
         <v>46010.70157997643</v>
       </c>
       <c r="E111">
-        <v>54971.74843047406</v>
+        <v>54971.74843047405</v>
       </c>
     </row>
     <row r="112" spans="1:5">
@@ -2258,16 +2258,16 @@
         <v>111</v>
       </c>
       <c r="B112">
-        <v>43783.95054462347</v>
+        <v>43783.95054462346</v>
       </c>
       <c r="C112">
-        <v>44130.18533525007</v>
+        <v>44130.18533525005</v>
       </c>
       <c r="D112">
-        <v>47120.01966503851</v>
+        <v>47120.01966503848</v>
       </c>
       <c r="E112">
-        <v>56706.6712897355</v>
+        <v>56706.67128973546</v>
       </c>
     </row>
     <row r="113" spans="1:5">
@@ -2281,10 +2281,10 @@
         <v>42426.99198952223</v>
       </c>
       <c r="D113">
-        <v>45154.14743765492</v>
+        <v>45154.14743765493</v>
       </c>
       <c r="E113">
-        <v>54214.70186876458</v>
+        <v>54214.70186876459</v>
       </c>
     </row>
     <row r="114" spans="1:5">
@@ -2298,10 +2298,10 @@
         <v>42426.99198952223</v>
       </c>
       <c r="D114">
-        <v>45154.14743765492</v>
+        <v>45154.14743765493</v>
       </c>
       <c r="E114">
-        <v>54214.70186876458</v>
+        <v>54214.70186876459</v>
       </c>
     </row>
     <row r="115" spans="1:5">
@@ -2309,16 +2309,16 @@
         <v>114</v>
       </c>
       <c r="B115">
-        <v>43783.95054462347</v>
+        <v>43783.95054462346</v>
       </c>
       <c r="C115">
-        <v>44130.18533525007</v>
+        <v>44130.18533525005</v>
       </c>
       <c r="D115">
-        <v>47120.01966503851</v>
+        <v>47120.01966503848</v>
       </c>
       <c r="E115">
-        <v>56706.6712897355</v>
+        <v>56706.67128973546</v>
       </c>
     </row>
     <row r="116" spans="1:5">
@@ -2326,16 +2326,16 @@
         <v>115</v>
       </c>
       <c r="B116">
-        <v>43783.95054462347</v>
+        <v>43783.95054462346</v>
       </c>
       <c r="C116">
-        <v>44130.18533525007</v>
+        <v>44130.18533525005</v>
       </c>
       <c r="D116">
-        <v>47120.01966503851</v>
+        <v>47120.01966503848</v>
       </c>
       <c r="E116">
-        <v>56706.6712897355</v>
+        <v>56706.67128973546</v>
       </c>
     </row>
     <row r="117" spans="1:5">
@@ -2349,10 +2349,10 @@
         <v>42426.99198952223</v>
       </c>
       <c r="D117">
-        <v>45154.14743765492</v>
+        <v>45154.14743765493</v>
       </c>
       <c r="E117">
-        <v>54214.70186876458</v>
+        <v>54214.70186876459</v>
       </c>
     </row>
     <row r="118" spans="1:5">
@@ -2366,10 +2366,10 @@
         <v>42426.99198952223</v>
       </c>
       <c r="D118">
-        <v>45154.14743765492</v>
+        <v>45154.14743765493</v>
       </c>
       <c r="E118">
-        <v>54214.70186876458</v>
+        <v>54214.70186876459</v>
       </c>
     </row>
     <row r="119" spans="1:5">
@@ -2397,13 +2397,13 @@
         <v>47154.14472452254</v>
       </c>
       <c r="C120">
-        <v>47726.4214803766</v>
+        <v>47726.42148037659</v>
       </c>
       <c r="D120">
         <v>51300.49387388925</v>
       </c>
       <c r="E120">
-        <v>61771.1283106038</v>
+        <v>61771.12831060381</v>
       </c>
     </row>
     <row r="121" spans="1:5">
@@ -2414,13 +2414,13 @@
         <v>47154.14472452254</v>
       </c>
       <c r="C121">
-        <v>47726.4214803766</v>
+        <v>47726.42148037659</v>
       </c>
       <c r="D121">
         <v>51300.49387388925</v>
       </c>
       <c r="E121">
-        <v>61771.1283106038</v>
+        <v>61771.12831060381</v>
       </c>
     </row>
     <row r="122" spans="1:5">
@@ -2428,16 +2428,16 @@
         <v>121</v>
       </c>
       <c r="B122">
-        <v>44513.08583264437</v>
+        <v>44513.08583264438</v>
       </c>
       <c r="C122">
-        <v>44703.77905003779</v>
+        <v>44703.77905003777</v>
       </c>
       <c r="D122">
         <v>46884.79628281597</v>
       </c>
       <c r="E122">
-        <v>55769.34942967592</v>
+        <v>55769.34942967588</v>
       </c>
     </row>
     <row r="123" spans="1:5">
@@ -2445,16 +2445,16 @@
         <v>122</v>
       </c>
       <c r="B123">
-        <v>44513.08583264437</v>
+        <v>44513.08583264438</v>
       </c>
       <c r="C123">
-        <v>44703.77905003779</v>
+        <v>44703.77905003777</v>
       </c>
       <c r="D123">
         <v>46884.79628281597</v>
       </c>
       <c r="E123">
-        <v>55769.34942967592</v>
+        <v>55769.34942967588</v>
       </c>
     </row>
     <row r="124" spans="1:5">
@@ -2462,16 +2462,16 @@
         <v>123</v>
       </c>
       <c r="B124">
-        <v>44513.08583264437</v>
+        <v>44513.08583264438</v>
       </c>
       <c r="C124">
-        <v>44703.77905003779</v>
+        <v>44703.77905003777</v>
       </c>
       <c r="D124">
         <v>46884.79628281597</v>
       </c>
       <c r="E124">
-        <v>55769.34942967592</v>
+        <v>55769.34942967588</v>
       </c>
     </row>
     <row r="125" spans="1:5">
@@ -2479,16 +2479,16 @@
         <v>124</v>
       </c>
       <c r="B125">
-        <v>43629.86504053541</v>
+        <v>43629.8650405354</v>
       </c>
       <c r="C125">
         <v>43749.11160705907</v>
       </c>
       <c r="D125">
-        <v>45577.70278975765</v>
+        <v>45577.70278975766</v>
       </c>
       <c r="E125">
-        <v>53970.55427185341</v>
+        <v>53970.55427185338</v>
       </c>
     </row>
     <row r="126" spans="1:5">
@@ -2496,16 +2496,16 @@
         <v>125</v>
       </c>
       <c r="B126">
-        <v>43629.86504053541</v>
+        <v>43629.8650405354</v>
       </c>
       <c r="C126">
         <v>43749.11160705907</v>
       </c>
       <c r="D126">
-        <v>45577.70278975765</v>
+        <v>45577.70278975766</v>
       </c>
       <c r="E126">
-        <v>53970.55427185341</v>
+        <v>53970.55427185338</v>
       </c>
     </row>
     <row r="127" spans="1:5">
@@ -2513,16 +2513,16 @@
         <v>126</v>
       </c>
       <c r="B127">
-        <v>45507.52440034004</v>
+        <v>45507.52440034005</v>
       </c>
       <c r="C127">
-        <v>45595.50558951278</v>
+        <v>45595.50558951279</v>
       </c>
       <c r="D127">
-        <v>47115.65008499347</v>
+        <v>47115.65008499345</v>
       </c>
       <c r="E127">
-        <v>55243.4429712202</v>
+        <v>55243.44297122015</v>
       </c>
     </row>
     <row r="128" spans="1:5">
@@ -2530,16 +2530,16 @@
         <v>127</v>
       </c>
       <c r="B128">
-        <v>46251.87181477756</v>
+        <v>46251.87181477757</v>
       </c>
       <c r="C128">
-        <v>46641.50291481889</v>
+        <v>46641.50291481891</v>
       </c>
       <c r="D128">
-        <v>48973.35240390706</v>
+        <v>48973.35240390704</v>
       </c>
       <c r="E128">
-        <v>58293.48288966334</v>
+        <v>58293.48288966333</v>
       </c>
     </row>
     <row r="129" spans="1:5">
@@ -2547,16 +2547,16 @@
         <v>128</v>
       </c>
       <c r="B129">
-        <v>46251.87181477756</v>
+        <v>46251.87181477757</v>
       </c>
       <c r="C129">
-        <v>46641.50291481889</v>
+        <v>46641.50291481891</v>
       </c>
       <c r="D129">
-        <v>48973.35240390706</v>
+        <v>48973.35240390704</v>
       </c>
       <c r="E129">
-        <v>58293.48288966334</v>
+        <v>58293.48288966333</v>
       </c>
     </row>
     <row r="130" spans="1:5">
@@ -2567,13 +2567,13 @@
         <v>48260.2608517929</v>
       </c>
       <c r="C130">
-        <v>48883.56484730929</v>
+        <v>48883.56484730927</v>
       </c>
       <c r="D130">
         <v>52187.80291528554</v>
       </c>
       <c r="E130">
-        <v>63064.41190642073</v>
+        <v>63064.41190642074</v>
       </c>
     </row>
     <row r="131" spans="1:5">
@@ -2584,13 +2584,13 @@
         <v>48260.2608517929</v>
       </c>
       <c r="C131">
-        <v>48883.56484730929</v>
+        <v>48883.56484730927</v>
       </c>
       <c r="D131">
         <v>52187.80291528554</v>
       </c>
       <c r="E131">
-        <v>63064.41190642073</v>
+        <v>63064.41190642074</v>
       </c>
     </row>
     <row r="132" spans="1:5">
@@ -2601,13 +2601,13 @@
         <v>48260.2608517929</v>
       </c>
       <c r="C132">
-        <v>48883.56484730929</v>
+        <v>48883.56484730927</v>
       </c>
       <c r="D132">
         <v>52187.80291528554</v>
       </c>
       <c r="E132">
-        <v>63064.41190642073</v>
+        <v>63064.41190642074</v>
       </c>
     </row>
     <row r="133" spans="1:5">
@@ -2618,13 +2618,13 @@
         <v>48260.2608517929</v>
       </c>
       <c r="C133">
-        <v>48883.56484730929</v>
+        <v>48883.56484730927</v>
       </c>
       <c r="D133">
         <v>52187.80291528554</v>
       </c>
       <c r="E133">
-        <v>63064.41190642073</v>
+        <v>63064.41190642074</v>
       </c>
     </row>
     <row r="134" spans="1:5">
@@ -2635,13 +2635,13 @@
         <v>50018.58120906678</v>
       </c>
       <c r="C134">
-        <v>51113.73760552202</v>
+        <v>51113.73760552199</v>
       </c>
       <c r="D134">
         <v>54773.27123986898</v>
       </c>
       <c r="E134">
-        <v>65379.63834226054</v>
+        <v>65379.63834226056</v>
       </c>
     </row>
     <row r="135" spans="1:5">
@@ -2649,13 +2649,13 @@
         <v>134</v>
       </c>
       <c r="B135">
-        <v>47495.73135517893</v>
+        <v>47495.73135517896</v>
       </c>
       <c r="C135">
         <v>48207.1940467044</v>
       </c>
       <c r="D135">
-        <v>51447.16841033388</v>
+        <v>51447.16841033389</v>
       </c>
       <c r="E135">
         <v>62261.70011145782</v>
@@ -2669,13 +2669,13 @@
         <v>46556.52058826474</v>
       </c>
       <c r="C136">
-        <v>46931.78331010478</v>
+        <v>46931.78331010477</v>
       </c>
       <c r="D136">
         <v>49683.48263987962</v>
       </c>
       <c r="E136">
-        <v>60004.2183011443</v>
+        <v>60004.21830114428</v>
       </c>
     </row>
     <row r="137" spans="1:5">
@@ -2686,13 +2686,13 @@
         <v>46556.52058826474</v>
       </c>
       <c r="C137">
-        <v>46931.78331010478</v>
+        <v>46931.78331010477</v>
       </c>
       <c r="D137">
         <v>49683.48263987962</v>
       </c>
       <c r="E137">
-        <v>60004.2183011443</v>
+        <v>60004.21830114428</v>
       </c>
     </row>
     <row r="138" spans="1:5">
@@ -2703,13 +2703,13 @@
         <v>46556.52058826474</v>
       </c>
       <c r="C138">
-        <v>46931.78331010478</v>
+        <v>46931.78331010477</v>
       </c>
       <c r="D138">
         <v>49683.48263987962</v>
       </c>
       <c r="E138">
-        <v>60004.2183011443</v>
+        <v>60004.21830114428</v>
       </c>
     </row>
     <row r="139" spans="1:5">
@@ -2717,16 +2717,16 @@
         <v>138</v>
       </c>
       <c r="B139">
-        <v>46433.03227989346</v>
+        <v>46433.03227989344</v>
       </c>
       <c r="C139">
         <v>46926.16710592352</v>
       </c>
       <c r="D139">
-        <v>49907.33976203721</v>
+        <v>49907.33976203719</v>
       </c>
       <c r="E139">
-        <v>60235.04707306615</v>
+        <v>60235.04707306612</v>
       </c>
     </row>
     <row r="140" spans="1:5">
@@ -2743,7 +2743,7 @@
         <v>43791.89755098298</v>
       </c>
       <c r="E140">
-        <v>52442.26195012563</v>
+        <v>52442.26195012566</v>
       </c>
     </row>
     <row r="141" spans="1:5">
@@ -2751,16 +2751,16 @@
         <v>140</v>
       </c>
       <c r="B141">
-        <v>46433.03227989346</v>
+        <v>46433.03227989344</v>
       </c>
       <c r="C141">
         <v>46926.16710592352</v>
       </c>
       <c r="D141">
-        <v>49907.33976203721</v>
+        <v>49907.33976203719</v>
       </c>
       <c r="E141">
-        <v>60235.04707306615</v>
+        <v>60235.04707306612</v>
       </c>
     </row>
     <row r="142" spans="1:5">
@@ -2768,16 +2768,16 @@
         <v>141</v>
       </c>
       <c r="B142">
-        <v>46433.03227989346</v>
+        <v>46433.03227989344</v>
       </c>
       <c r="C142">
         <v>46926.16710592352</v>
       </c>
       <c r="D142">
-        <v>49907.33976203721</v>
+        <v>49907.33976203719</v>
       </c>
       <c r="E142">
-        <v>60235.04707306615</v>
+        <v>60235.04707306612</v>
       </c>
     </row>
     <row r="143" spans="1:5">
@@ -2785,16 +2785,16 @@
         <v>142</v>
       </c>
       <c r="B143">
-        <v>46251.87181477756</v>
+        <v>46251.87181477757</v>
       </c>
       <c r="C143">
-        <v>46641.50291481889</v>
+        <v>46641.50291481891</v>
       </c>
       <c r="D143">
-        <v>48973.35240390706</v>
+        <v>48973.35240390704</v>
       </c>
       <c r="E143">
-        <v>58293.48288966334</v>
+        <v>58293.48288966333</v>
       </c>
     </row>
     <row r="144" spans="1:5">
@@ -2802,16 +2802,16 @@
         <v>143</v>
       </c>
       <c r="B144">
-        <v>46251.87181477756</v>
+        <v>46251.87181477757</v>
       </c>
       <c r="C144">
-        <v>46641.50291481889</v>
+        <v>46641.50291481891</v>
       </c>
       <c r="D144">
-        <v>48973.35240390706</v>
+        <v>48973.35240390704</v>
       </c>
       <c r="E144">
-        <v>58293.48288966334</v>
+        <v>58293.48288966333</v>
       </c>
     </row>
     <row r="145" spans="1:5">
@@ -2819,16 +2819,16 @@
         <v>144</v>
       </c>
       <c r="B145">
-        <v>46251.87181477756</v>
+        <v>46251.87181477757</v>
       </c>
       <c r="C145">
-        <v>46641.50291481889</v>
+        <v>46641.50291481891</v>
       </c>
       <c r="D145">
-        <v>48973.35240390706</v>
+        <v>48973.35240390704</v>
       </c>
       <c r="E145">
-        <v>58293.48288966334</v>
+        <v>58293.48288966333</v>
       </c>
     </row>
     <row r="146" spans="1:5">
@@ -2836,16 +2836,16 @@
         <v>145</v>
       </c>
       <c r="B146">
-        <v>46251.87181477756</v>
+        <v>46251.87181477757</v>
       </c>
       <c r="C146">
-        <v>46641.50291481889</v>
+        <v>46641.50291481891</v>
       </c>
       <c r="D146">
-        <v>48973.35240390706</v>
+        <v>48973.35240390704</v>
       </c>
       <c r="E146">
-        <v>58293.48288966334</v>
+        <v>58293.48288966333</v>
       </c>
     </row>
     <row r="147" spans="1:5">
@@ -2853,16 +2853,16 @@
         <v>146</v>
       </c>
       <c r="B147">
-        <v>44404.58472854233</v>
+        <v>44404.58472854234</v>
       </c>
       <c r="C147">
         <v>44789.98406825691</v>
       </c>
       <c r="D147">
-        <v>46894.8815578819</v>
+        <v>46894.88155788188</v>
       </c>
       <c r="E147">
-        <v>56130.36701822651</v>
+        <v>56130.36701822654</v>
       </c>
     </row>
     <row r="148" spans="1:5">
@@ -2870,16 +2870,16 @@
         <v>147</v>
       </c>
       <c r="B148">
-        <v>44404.58472854233</v>
+        <v>44404.58472854234</v>
       </c>
       <c r="C148">
         <v>44789.98406825691</v>
       </c>
       <c r="D148">
-        <v>46894.8815578819</v>
+        <v>46894.88155788188</v>
       </c>
       <c r="E148">
-        <v>56130.36701822651</v>
+        <v>56130.36701822654</v>
       </c>
     </row>
     <row r="149" spans="1:5">
@@ -2890,13 +2890,13 @@
         <v>44002.57477055544</v>
       </c>
       <c r="C149">
-        <v>44763.37120704736</v>
+        <v>44763.37120704733</v>
       </c>
       <c r="D149">
         <v>47777.2288532751</v>
       </c>
       <c r="E149">
-        <v>57468.03391055429</v>
+        <v>57468.03391055433</v>
       </c>
     </row>
     <row r="150" spans="1:5">
@@ -2907,13 +2907,13 @@
         <v>44002.57477055544</v>
       </c>
       <c r="C150">
-        <v>44763.37120704736</v>
+        <v>44763.37120704733</v>
       </c>
       <c r="D150">
         <v>47777.2288532751</v>
       </c>
       <c r="E150">
-        <v>57468.03391055429</v>
+        <v>57468.03391055433</v>
       </c>
     </row>
     <row r="151" spans="1:5">
@@ -2924,13 +2924,13 @@
         <v>44002.57477055544</v>
       </c>
       <c r="C151">
-        <v>44763.37120704736</v>
+        <v>44763.37120704733</v>
       </c>
       <c r="D151">
         <v>47777.2288532751</v>
       </c>
       <c r="E151">
-        <v>57468.03391055429</v>
+        <v>57468.03391055433</v>
       </c>
     </row>
     <row r="152" spans="1:5">
@@ -2941,13 +2941,13 @@
         <v>44002.57477055544</v>
       </c>
       <c r="C152">
-        <v>44763.37120704736</v>
+        <v>44763.37120704733</v>
       </c>
       <c r="D152">
         <v>47777.2288532751</v>
       </c>
       <c r="E152">
-        <v>57468.03391055429</v>
+        <v>57468.03391055433</v>
       </c>
     </row>
     <row r="153" spans="1:5">
@@ -2955,13 +2955,13 @@
         <v>152</v>
       </c>
       <c r="B153">
-        <v>39490.90500628693</v>
+        <v>39490.90500628691</v>
       </c>
       <c r="C153">
         <v>39644.75204439703</v>
       </c>
       <c r="D153">
-        <v>41184.97043848586</v>
+        <v>41184.97043848585</v>
       </c>
       <c r="E153">
         <v>49594.647573344</v>
@@ -2972,13 +2972,13 @@
         <v>153</v>
       </c>
       <c r="B154">
-        <v>39490.90500628693</v>
+        <v>39490.90500628691</v>
       </c>
       <c r="C154">
         <v>39644.75204439703</v>
       </c>
       <c r="D154">
-        <v>41184.97043848586</v>
+        <v>41184.97043848585</v>
       </c>
       <c r="E154">
         <v>49594.647573344</v>
@@ -2998,7 +2998,7 @@
         <v>40102.5291389132</v>
       </c>
       <c r="E155">
-        <v>48339.54341799211</v>
+        <v>48339.54341799214</v>
       </c>
     </row>
     <row r="156" spans="1:5">
@@ -3015,7 +3015,7 @@
         <v>40102.5291389132</v>
       </c>
       <c r="E156">
-        <v>48339.54341799211</v>
+        <v>48339.54341799214</v>
       </c>
     </row>
     <row r="157" spans="1:5">
@@ -3032,7 +3032,7 @@
         <v>40102.5291389132</v>
       </c>
       <c r="E157">
-        <v>48339.54341799211</v>
+        <v>48339.54341799214</v>
       </c>
     </row>
     <row r="158" spans="1:5">
@@ -3046,10 +3046,10 @@
         <v>41885.54027147534</v>
       </c>
       <c r="D158">
-        <v>44764.93418553429</v>
+        <v>44764.93418553432</v>
       </c>
       <c r="E158">
-        <v>54045.90839561813</v>
+        <v>54045.90839561809</v>
       </c>
     </row>
     <row r="159" spans="1:5">
@@ -3063,10 +3063,10 @@
         <v>41885.54027147534</v>
       </c>
       <c r="D159">
-        <v>44764.93418553429</v>
+        <v>44764.93418553432</v>
       </c>
       <c r="E159">
-        <v>54045.90839561813</v>
+        <v>54045.90839561809</v>
       </c>
     </row>
     <row r="160" spans="1:5">
@@ -3077,13 +3077,13 @@
         <v>38084.85275491988</v>
       </c>
       <c r="C160">
-        <v>38542.4524772412</v>
+        <v>38542.45247724117</v>
       </c>
       <c r="D160">
-        <v>40623.23221674363</v>
+        <v>40623.23221674364</v>
       </c>
       <c r="E160">
-        <v>49216.9630119339</v>
+        <v>49216.96301193392</v>
       </c>
     </row>
     <row r="161" spans="1:5">
@@ -3091,16 +3091,16 @@
         <v>160</v>
       </c>
       <c r="B161">
-        <v>37220.98379820268</v>
+        <v>37220.98379820267</v>
       </c>
       <c r="C161">
-        <v>37708.80269859506</v>
+        <v>37708.80269859503</v>
       </c>
       <c r="D161">
         <v>39834.24539103189</v>
       </c>
       <c r="E161">
-        <v>48116.80982863595</v>
+        <v>48116.80982863598</v>
       </c>
     </row>
     <row r="162" spans="1:5">
@@ -3111,13 +3111,13 @@
         <v>38084.85275491988</v>
       </c>
       <c r="C162">
-        <v>38542.4524772412</v>
+        <v>38542.45247724117</v>
       </c>
       <c r="D162">
-        <v>40623.23221674363</v>
+        <v>40623.23221674364</v>
       </c>
       <c r="E162">
-        <v>49216.9630119339</v>
+        <v>49216.96301193392</v>
       </c>
     </row>
     <row r="163" spans="1:5">
@@ -3128,13 +3128,13 @@
         <v>44168.98297842783</v>
       </c>
       <c r="C163">
-        <v>44771.40881046386</v>
+        <v>44771.40881046384</v>
       </c>
       <c r="D163">
-        <v>47336.82289421022</v>
+        <v>47336.82289421024</v>
       </c>
       <c r="E163">
-        <v>56338.17997065913</v>
+        <v>56338.17997065914</v>
       </c>
     </row>
     <row r="164" spans="1:5">
@@ -3145,13 +3145,13 @@
         <v>44168.98297842783</v>
       </c>
       <c r="C164">
-        <v>44771.40881046386</v>
+        <v>44771.40881046384</v>
       </c>
       <c r="D164">
-        <v>47336.82289421022</v>
+        <v>47336.82289421024</v>
       </c>
       <c r="E164">
-        <v>56338.17997065913</v>
+        <v>56338.17997065914</v>
       </c>
     </row>
     <row r="165" spans="1:5">
@@ -3159,16 +3159,16 @@
         <v>164</v>
       </c>
       <c r="B165">
-        <v>40580.4672238336</v>
+        <v>40580.46722383361</v>
       </c>
       <c r="C165">
         <v>41006.48331545557</v>
       </c>
       <c r="D165">
-        <v>43213.91524860005</v>
+        <v>43213.91524860002</v>
       </c>
       <c r="E165">
-        <v>51431.95939655114</v>
+        <v>51431.95939655112</v>
       </c>
     </row>
     <row r="166" spans="1:5">
@@ -3176,16 +3176,16 @@
         <v>165</v>
       </c>
       <c r="B166">
-        <v>40580.4672238336</v>
+        <v>40580.46722383361</v>
       </c>
       <c r="C166">
         <v>41006.48331545557</v>
       </c>
       <c r="D166">
-        <v>43213.91524860005</v>
+        <v>43213.91524860002</v>
       </c>
       <c r="E166">
-        <v>51431.95939655114</v>
+        <v>51431.95939655112</v>
       </c>
     </row>
     <row r="167" spans="1:5">
@@ -3193,16 +3193,16 @@
         <v>166</v>
       </c>
       <c r="B167">
-        <v>38980.82146891002</v>
+        <v>38980.82146891004</v>
       </c>
       <c r="C167">
-        <v>39450.12597070081</v>
+        <v>39450.12597070082</v>
       </c>
       <c r="D167">
-        <v>41534.48494397099</v>
+        <v>41534.48494397102</v>
       </c>
       <c r="E167">
-        <v>49954.34587772359</v>
+        <v>49954.3458777236</v>
       </c>
     </row>
     <row r="168" spans="1:5">
@@ -3210,16 +3210,16 @@
         <v>167</v>
       </c>
       <c r="B168">
-        <v>38980.82146891002</v>
+        <v>38980.82146891004</v>
       </c>
       <c r="C168">
-        <v>39450.12597070081</v>
+        <v>39450.12597070082</v>
       </c>
       <c r="D168">
-        <v>41534.48494397099</v>
+        <v>41534.48494397102</v>
       </c>
       <c r="E168">
-        <v>49954.34587772359</v>
+        <v>49954.3458777236</v>
       </c>
     </row>
     <row r="169" spans="1:5">
@@ -3227,13 +3227,13 @@
         <v>168</v>
       </c>
       <c r="B169">
-        <v>47808.45270309844</v>
+        <v>47808.45270309845</v>
       </c>
       <c r="C169">
-        <v>48234.8770276311</v>
+        <v>48234.87702763111</v>
       </c>
       <c r="D169">
-        <v>51644.66735210772</v>
+        <v>51644.66735210771</v>
       </c>
       <c r="E169">
         <v>62827.02088817972</v>
@@ -3247,13 +3247,13 @@
         <v>47164.41940602539</v>
       </c>
       <c r="C170">
-        <v>47532.70479935031</v>
+        <v>47532.7047993503</v>
       </c>
       <c r="D170">
-        <v>50744.27159079726</v>
+        <v>50744.27159079725</v>
       </c>
       <c r="E170">
-        <v>61889.10744835782</v>
+        <v>61889.10744835786</v>
       </c>
     </row>
     <row r="171" spans="1:5">
@@ -3261,13 +3261,13 @@
         <v>170</v>
       </c>
       <c r="B171">
-        <v>47808.45270309844</v>
+        <v>47808.45270309845</v>
       </c>
       <c r="C171">
-        <v>48234.8770276311</v>
+        <v>48234.87702763111</v>
       </c>
       <c r="D171">
-        <v>51644.66735210772</v>
+        <v>51644.66735210771</v>
       </c>
       <c r="E171">
         <v>62827.02088817972</v>
@@ -3281,13 +3281,13 @@
         <v>47164.41940602539</v>
       </c>
       <c r="C172">
-        <v>47532.70479935031</v>
+        <v>47532.7047993503</v>
       </c>
       <c r="D172">
-        <v>50744.27159079726</v>
+        <v>50744.27159079725</v>
       </c>
       <c r="E172">
-        <v>61889.10744835782</v>
+        <v>61889.10744835786</v>
       </c>
     </row>
     <row r="173" spans="1:5">
@@ -3298,13 +3298,13 @@
         <v>47164.41940602539</v>
       </c>
       <c r="C173">
-        <v>47532.70479935031</v>
+        <v>47532.7047993503</v>
       </c>
       <c r="D173">
-        <v>50744.27159079726</v>
+        <v>50744.27159079725</v>
       </c>
       <c r="E173">
-        <v>61889.10744835782</v>
+        <v>61889.10744835786</v>
       </c>
     </row>
     <row r="174" spans="1:5">
@@ -3318,10 +3318,10 @@
         <v>49097.83265658156</v>
       </c>
       <c r="D174">
-        <v>52740.07312347217</v>
+        <v>52740.07312347219</v>
       </c>
       <c r="E174">
-        <v>64111.1895810662</v>
+        <v>64111.18958106623</v>
       </c>
     </row>
     <row r="175" spans="1:5">
@@ -3338,7 +3338,7 @@
         <v>48435.11828485051</v>
       </c>
       <c r="E175">
-        <v>59209.27574874404</v>
+        <v>59209.275748744</v>
       </c>
     </row>
     <row r="176" spans="1:5">
@@ -3355,7 +3355,7 @@
         <v>48435.11828485051</v>
       </c>
       <c r="E176">
-        <v>59209.27574874404</v>
+        <v>59209.275748744</v>
       </c>
     </row>
     <row r="177" spans="1:5">
@@ -3372,7 +3372,7 @@
         <v>48435.11828485051</v>
       </c>
       <c r="E177">
-        <v>59209.27574874404</v>
+        <v>59209.275748744</v>
       </c>
     </row>
     <row r="178" spans="1:5">
@@ -3380,13 +3380,13 @@
         <v>177</v>
       </c>
       <c r="B178">
-        <v>46344.67794468001</v>
+        <v>46344.67794468</v>
       </c>
       <c r="C178">
         <v>46564.23935693021</v>
       </c>
       <c r="D178">
-        <v>49060.51375873281</v>
+        <v>49060.51375873278</v>
       </c>
       <c r="E178">
         <v>59610.59260115329</v>
@@ -3400,13 +3400,13 @@
         <v>45480.70283485271</v>
       </c>
       <c r="C179">
-        <v>45647.10720879427</v>
+        <v>45647.10720879428</v>
       </c>
       <c r="D179">
-        <v>47894.41190404733</v>
+        <v>47894.4119040473</v>
       </c>
       <c r="E179">
-        <v>58193.43461356744</v>
+        <v>58193.4346135674</v>
       </c>
     </row>
     <row r="180" spans="1:5">
@@ -3417,13 +3417,13 @@
         <v>45480.70283485271</v>
       </c>
       <c r="C180">
-        <v>45647.10720879427</v>
+        <v>45647.10720879428</v>
       </c>
       <c r="D180">
-        <v>47894.41190404733</v>
+        <v>47894.4119040473</v>
       </c>
       <c r="E180">
-        <v>58193.43461356744</v>
+        <v>58193.4346135674</v>
       </c>
     </row>
     <row r="181" spans="1:5">
@@ -3434,13 +3434,13 @@
         <v>45480.70283485271</v>
       </c>
       <c r="C181">
-        <v>45647.10720879427</v>
+        <v>45647.10720879428</v>
       </c>
       <c r="D181">
-        <v>47894.41190404733</v>
+        <v>47894.4119040473</v>
       </c>
       <c r="E181">
-        <v>58193.43461356744</v>
+        <v>58193.4346135674</v>
       </c>
     </row>
     <row r="182" spans="1:5">
@@ -3454,10 +3454,10 @@
         <v>38915.63897657546</v>
       </c>
       <c r="D182">
-        <v>40128.95440043733</v>
+        <v>40128.95440043732</v>
       </c>
       <c r="E182">
-        <v>48224.49245798108</v>
+        <v>48224.49245798112</v>
       </c>
     </row>
     <row r="183" spans="1:5">
@@ -3465,16 +3465,16 @@
         <v>182</v>
       </c>
       <c r="B183">
-        <v>38589.15039474212</v>
+        <v>38589.15039474213</v>
       </c>
       <c r="C183">
         <v>38561.36147848199</v>
       </c>
       <c r="D183">
-        <v>39354.85358940403</v>
+        <v>39354.85358940402</v>
       </c>
       <c r="E183">
-        <v>47078.62118603983</v>
+        <v>47078.62118603985</v>
       </c>
     </row>
     <row r="184" spans="1:5">
@@ -3491,7 +3491,7 @@
         <v>44798.42647204755</v>
       </c>
       <c r="E184">
-        <v>54856.73447835649</v>
+        <v>54856.73447835648</v>
       </c>
     </row>
     <row r="185" spans="1:5">
@@ -3508,7 +3508,7 @@
         <v>44798.42647204755</v>
       </c>
       <c r="E185">
-        <v>54856.73447835649</v>
+        <v>54856.73447835648</v>
       </c>
     </row>
     <row r="186" spans="1:5">
@@ -3522,10 +3522,10 @@
         <v>40297.58677405694</v>
       </c>
       <c r="D186">
-        <v>42620.53077906025</v>
+        <v>42620.53077906026</v>
       </c>
       <c r="E186">
-        <v>52317.99218424159</v>
+        <v>52317.99218424157</v>
       </c>
     </row>
     <row r="187" spans="1:5">
@@ -3539,10 +3539,10 @@
         <v>40297.58677405694</v>
       </c>
       <c r="D187">
-        <v>42620.53077906025</v>
+        <v>42620.53077906026</v>
       </c>
       <c r="E187">
-        <v>52317.99218424159</v>
+        <v>52317.99218424157</v>
       </c>
     </row>
     <row r="188" spans="1:5">
@@ -3550,16 +3550,16 @@
         <v>187</v>
       </c>
       <c r="B188">
-        <v>38350.03977159195</v>
+        <v>38350.03977159194</v>
       </c>
       <c r="C188">
         <v>38438.92398920759</v>
       </c>
       <c r="D188">
-        <v>40065.33655339395</v>
+        <v>40065.33655339393</v>
       </c>
       <c r="E188">
-        <v>48743.43421689579</v>
+        <v>48743.4342168958</v>
       </c>
     </row>
     <row r="189" spans="1:5">
@@ -3567,16 +3567,16 @@
         <v>188</v>
       </c>
       <c r="B189">
-        <v>38350.03977159195</v>
+        <v>38350.03977159194</v>
       </c>
       <c r="C189">
         <v>38438.92398920759</v>
       </c>
       <c r="D189">
-        <v>40065.33655339395</v>
+        <v>40065.33655339393</v>
       </c>
       <c r="E189">
-        <v>48743.43421689579</v>
+        <v>48743.4342168958</v>
       </c>
     </row>
     <row r="190" spans="1:5">
@@ -3584,16 +3584,16 @@
         <v>189</v>
       </c>
       <c r="B190">
-        <v>38350.03977159195</v>
+        <v>38350.03977159194</v>
       </c>
       <c r="C190">
         <v>38438.92398920759</v>
       </c>
       <c r="D190">
-        <v>40065.33655339395</v>
+        <v>40065.33655339393</v>
       </c>
       <c r="E190">
-        <v>48743.43421689579</v>
+        <v>48743.4342168958</v>
       </c>
     </row>
     <row r="191" spans="1:5">
@@ -3601,13 +3601,13 @@
         <v>190</v>
       </c>
       <c r="B191">
-        <v>42138.90840207927</v>
+        <v>42138.90840207925</v>
       </c>
       <c r="C191">
-        <v>42369.18409542213</v>
+        <v>42369.18409542211</v>
       </c>
       <c r="D191">
-        <v>44791.99210235965</v>
+        <v>44791.99210235968</v>
       </c>
       <c r="E191">
         <v>54877.90834034471</v>
@@ -3624,10 +3624,10 @@
         <v>40297.58677405694</v>
       </c>
       <c r="D192">
-        <v>42620.53077906025</v>
+        <v>42620.53077906026</v>
       </c>
       <c r="E192">
-        <v>52317.99218424159</v>
+        <v>52317.99218424157</v>
       </c>
     </row>
     <row r="193" spans="1:5">
@@ -3635,10 +3635,10 @@
         <v>192</v>
       </c>
       <c r="B193">
-        <v>47200.09791624146</v>
+        <v>47200.09791624144</v>
       </c>
       <c r="C193">
-        <v>47514.9404647659</v>
+        <v>47514.94046476592</v>
       </c>
       <c r="D193">
         <v>50870.6107467269</v>
@@ -3652,10 +3652,10 @@
         <v>193</v>
       </c>
       <c r="B194">
-        <v>47200.09791624146</v>
+        <v>47200.09791624144</v>
       </c>
       <c r="C194">
-        <v>47514.9404647659</v>
+        <v>47514.94046476592</v>
       </c>
       <c r="D194">
         <v>50870.6107467269</v>
@@ -3669,13 +3669,13 @@
         <v>194</v>
       </c>
       <c r="B195">
-        <v>47808.45270309844</v>
+        <v>47808.45270309845</v>
       </c>
       <c r="C195">
-        <v>48234.8770276311</v>
+        <v>48234.87702763111</v>
       </c>
       <c r="D195">
-        <v>51644.66735210772</v>
+        <v>51644.66735210771</v>
       </c>
       <c r="E195">
         <v>62827.02088817972</v>
@@ -3692,7 +3692,7 @@
         <v>44530.6574837462</v>
       </c>
       <c r="D196">
-        <v>47274.79274936843</v>
+        <v>47274.79274936841</v>
       </c>
       <c r="E196">
         <v>57750.8102096498</v>
@@ -3709,10 +3709,10 @@
         <v>44418.90419320993</v>
       </c>
       <c r="D197">
-        <v>47178.3449761157</v>
+        <v>47178.34497611569</v>
       </c>
       <c r="E197">
-        <v>57586.48965450156</v>
+        <v>57586.48965450159</v>
       </c>
     </row>
     <row r="198" spans="1:5">
@@ -3726,10 +3726,10 @@
         <v>44418.90419320993</v>
       </c>
       <c r="D198">
-        <v>47178.3449761157</v>
+        <v>47178.34497611569</v>
       </c>
       <c r="E198">
-        <v>57586.48965450156</v>
+        <v>57586.48965450159</v>
       </c>
     </row>
     <row r="199" spans="1:5">
@@ -3743,10 +3743,10 @@
         <v>44418.90419320993</v>
       </c>
       <c r="D199">
-        <v>47178.3449761157</v>
+        <v>47178.34497611569</v>
       </c>
       <c r="E199">
-        <v>57586.48965450156</v>
+        <v>57586.48965450159</v>
       </c>
     </row>
     <row r="200" spans="1:5">
@@ -3760,10 +3760,10 @@
         <v>44418.90419320993</v>
       </c>
       <c r="D200">
-        <v>47178.3449761157</v>
+        <v>47178.34497611569</v>
       </c>
       <c r="E200">
-        <v>57586.48965450156</v>
+        <v>57586.48965450159</v>
       </c>
     </row>
     <row r="201" spans="1:5">
@@ -3774,13 +3774,13 @@
         <v>44892.61026200461</v>
       </c>
       <c r="C201">
-        <v>45222.42971644236</v>
+        <v>45222.42971644235</v>
       </c>
       <c r="D201">
-        <v>48417.96056158653</v>
+        <v>48417.96056158654</v>
       </c>
       <c r="E201">
-        <v>58672.17960720993</v>
+        <v>58672.17960720991</v>
       </c>
     </row>
     <row r="202" spans="1:5">
@@ -3788,16 +3788,16 @@
         <v>201</v>
       </c>
       <c r="B202">
-        <v>41941.0487820118</v>
+        <v>41941.04878201178</v>
       </c>
       <c r="C202">
-        <v>42058.88188154391</v>
+        <v>42058.88188154389</v>
       </c>
       <c r="D202">
         <v>44921.53224649664</v>
       </c>
       <c r="E202">
-        <v>54895.03595878979</v>
+        <v>54895.03595878977</v>
       </c>
     </row>
     <row r="203" spans="1:5">
@@ -3811,7 +3811,7 @@
         <v>44530.6574837462</v>
       </c>
       <c r="D203">
-        <v>47274.79274936843</v>
+        <v>47274.79274936841</v>
       </c>
       <c r="E203">
         <v>57750.8102096498</v>
@@ -3822,7 +3822,7 @@
         <v>203</v>
       </c>
       <c r="B204">
-        <v>42275.22368417724</v>
+        <v>42275.22368417722</v>
       </c>
       <c r="C204">
         <v>42427.01348762713</v>
@@ -3831,7 +3831,7 @@
         <v>45515.0429560068</v>
       </c>
       <c r="E204">
-        <v>55913.50559652741</v>
+        <v>55913.50559652739</v>
       </c>
     </row>
     <row r="205" spans="1:5">
@@ -3839,7 +3839,7 @@
         <v>204</v>
       </c>
       <c r="B205">
-        <v>42275.22368417724</v>
+        <v>42275.22368417722</v>
       </c>
       <c r="C205">
         <v>42427.01348762713</v>
@@ -3848,7 +3848,7 @@
         <v>45515.0429560068</v>
       </c>
       <c r="E205">
-        <v>55913.50559652741</v>
+        <v>55913.50559652739</v>
       </c>
     </row>
     <row r="206" spans="1:5">
@@ -3856,7 +3856,7 @@
         <v>205</v>
       </c>
       <c r="B206">
-        <v>30102.95334388802</v>
+        <v>30102.95334388801</v>
       </c>
       <c r="C206">
         <v>32607.03667345388</v>
@@ -3879,10 +3879,10 @@
         <v>28533.75087626105</v>
       </c>
       <c r="D207">
-        <v>28976.48958333443</v>
+        <v>28976.48958333444</v>
       </c>
       <c r="E207">
-        <v>30217.02384761988</v>
+        <v>30217.02384761987</v>
       </c>
     </row>
     <row r="208" spans="1:5">
@@ -3896,10 +3896,10 @@
         <v>28533.75087626105</v>
       </c>
       <c r="D208">
-        <v>28976.48958333443</v>
+        <v>28976.48958333444</v>
       </c>
       <c r="E208">
-        <v>30217.02384761988</v>
+        <v>30217.02384761987</v>
       </c>
     </row>
     <row r="209" spans="1:5">
@@ -3907,7 +3907,7 @@
         <v>208</v>
       </c>
       <c r="B209">
-        <v>30102.95334388802</v>
+        <v>30102.95334388801</v>
       </c>
       <c r="C209">
         <v>32607.03667345388</v>
@@ -3930,10 +3930,10 @@
         <v>28533.75087626105</v>
       </c>
       <c r="D210">
-        <v>28976.48958333443</v>
+        <v>28976.48958333444</v>
       </c>
       <c r="E210">
-        <v>30217.02384761988</v>
+        <v>30217.02384761987</v>
       </c>
     </row>
     <row r="211" spans="1:5">
@@ -3950,7 +3950,7 @@
         <v>29085.45447551875</v>
       </c>
       <c r="E211">
-        <v>30587.83702893182</v>
+        <v>30587.83702893183</v>
       </c>
     </row>
     <row r="212" spans="1:5">
@@ -3961,13 +3961,13 @@
         <v>29196.13593784796</v>
       </c>
       <c r="C212">
-        <v>30883.25911930671</v>
+        <v>30883.25911930673</v>
       </c>
       <c r="D212">
         <v>31237.4783205683</v>
       </c>
       <c r="E212">
-        <v>33014.69785170274</v>
+        <v>33014.69785170275</v>
       </c>
     </row>
     <row r="213" spans="1:5">
@@ -3981,10 +3981,10 @@
         <v>28533.75087626105</v>
       </c>
       <c r="D213">
-        <v>28976.48958333443</v>
+        <v>28976.48958333444</v>
       </c>
       <c r="E213">
-        <v>30217.02384761988</v>
+        <v>30217.02384761987</v>
       </c>
     </row>
     <row r="214" spans="1:5">
@@ -3992,16 +3992,16 @@
         <v>213</v>
       </c>
       <c r="B214">
-        <v>24950.81579126085</v>
+        <v>24950.81579126084</v>
       </c>
       <c r="C214">
-        <v>26696.83368451471</v>
+        <v>26696.83368451472</v>
       </c>
       <c r="D214">
         <v>26275.48090271998</v>
       </c>
       <c r="E214">
-        <v>26568.14504663597</v>
+        <v>26568.14504663598</v>
       </c>
     </row>
     <row r="215" spans="1:5">
@@ -4009,16 +4009,16 @@
         <v>214</v>
       </c>
       <c r="B215">
-        <v>24950.81579126085</v>
+        <v>24950.81579126084</v>
       </c>
       <c r="C215">
-        <v>26696.83368451471</v>
+        <v>26696.83368451472</v>
       </c>
       <c r="D215">
         <v>26275.48090271998</v>
       </c>
       <c r="E215">
-        <v>26568.14504663597</v>
+        <v>26568.14504663598</v>
       </c>
     </row>
     <row r="216" spans="1:5">
@@ -4026,10 +4026,10 @@
         <v>215</v>
       </c>
       <c r="B216">
-        <v>24306.41950268407</v>
+        <v>24306.41950268406</v>
       </c>
       <c r="C216">
-        <v>25984.82258817873</v>
+        <v>25984.82258817872</v>
       </c>
       <c r="D216">
         <v>25019.6703396886</v>
@@ -4043,7 +4043,7 @@
         <v>216</v>
       </c>
       <c r="B217">
-        <v>24984.94163492303</v>
+        <v>24984.94163492302</v>
       </c>
       <c r="C217">
         <v>26825.74337131068</v>
@@ -4052,7 +4052,7 @@
         <v>26655.92211562222</v>
       </c>
       <c r="E217">
-        <v>26946.45195836563</v>
+        <v>26946.45195836564</v>
       </c>
     </row>
     <row r="218" spans="1:5">
@@ -4060,7 +4060,7 @@
         <v>217</v>
       </c>
       <c r="B218">
-        <v>24984.94163492303</v>
+        <v>24984.94163492302</v>
       </c>
       <c r="C218">
         <v>26825.74337131068</v>
@@ -4069,7 +4069,7 @@
         <v>26655.92211562222</v>
       </c>
       <c r="E218">
-        <v>26946.45195836563</v>
+        <v>26946.45195836564</v>
       </c>
     </row>
     <row r="219" spans="1:5">
@@ -4077,13 +4077,13 @@
         <v>218</v>
       </c>
       <c r="B219">
-        <v>29813.36544703717</v>
+        <v>29813.36544703716</v>
       </c>
       <c r="C219">
         <v>31245.63545021151</v>
       </c>
       <c r="D219">
-        <v>31699.71806119349</v>
+        <v>31699.7180611935</v>
       </c>
       <c r="E219">
         <v>34115.85670259649</v>
@@ -4094,7 +4094,7 @@
         <v>219</v>
       </c>
       <c r="B220">
-        <v>28563.31947480751</v>
+        <v>28563.31947480752</v>
       </c>
       <c r="C220">
         <v>30042.78215791632</v>
@@ -4111,16 +4111,16 @@
         <v>220</v>
       </c>
       <c r="B221">
-        <v>32239.09255842226</v>
+        <v>32239.09255842227</v>
       </c>
       <c r="C221">
-        <v>33601.45509982559</v>
+        <v>33601.45509982561</v>
       </c>
       <c r="D221">
-        <v>34390.05838118817</v>
+        <v>34390.05838118819</v>
       </c>
       <c r="E221">
-        <v>37816.49954907823</v>
+        <v>37816.49954907822</v>
       </c>
     </row>
     <row r="222" spans="1:5">
@@ -4128,13 +4128,13 @@
         <v>221</v>
       </c>
       <c r="B222">
-        <v>29813.36544703717</v>
+        <v>29813.36544703716</v>
       </c>
       <c r="C222">
         <v>31245.63545021151</v>
       </c>
       <c r="D222">
-        <v>31699.71806119349</v>
+        <v>31699.7180611935</v>
       </c>
       <c r="E222">
         <v>34115.85670259649</v>
@@ -4145,16 +4145,16 @@
         <v>222</v>
       </c>
       <c r="B223">
-        <v>32239.09255842226</v>
+        <v>32239.09255842227</v>
       </c>
       <c r="C223">
-        <v>33601.45509982559</v>
+        <v>33601.45509982561</v>
       </c>
       <c r="D223">
-        <v>34390.05838118817</v>
+        <v>34390.05838118819</v>
       </c>
       <c r="E223">
-        <v>37816.49954907823</v>
+        <v>37816.49954907822</v>
       </c>
     </row>
     <row r="224" spans="1:5">
@@ -4162,7 +4162,7 @@
         <v>223</v>
       </c>
       <c r="B224">
-        <v>24968.61670440188</v>
+        <v>24968.61670440189</v>
       </c>
       <c r="C224">
         <v>26957.51272943658</v>
@@ -4171,7 +4171,7 @@
         <v>26808.89014957231</v>
       </c>
       <c r="E224">
-        <v>27283.69081633734</v>
+        <v>27283.69081633736</v>
       </c>
     </row>
     <row r="225" spans="1:5">
@@ -4179,7 +4179,7 @@
         <v>224</v>
       </c>
       <c r="B225">
-        <v>24968.61670440188</v>
+        <v>24968.61670440189</v>
       </c>
       <c r="C225">
         <v>26957.51272943658</v>
@@ -4188,7 +4188,7 @@
         <v>26808.89014957231</v>
       </c>
       <c r="E225">
-        <v>27283.69081633734</v>
+        <v>27283.69081633736</v>
       </c>
     </row>
     <row r="226" spans="1:5">
@@ -4196,7 +4196,7 @@
         <v>225</v>
       </c>
       <c r="B226">
-        <v>24968.61670440188</v>
+        <v>24968.61670440189</v>
       </c>
       <c r="C226">
         <v>26957.51272943658</v>
@@ -4205,7 +4205,7 @@
         <v>26808.89014957231</v>
       </c>
       <c r="E226">
-        <v>27283.69081633734</v>
+        <v>27283.69081633736</v>
       </c>
     </row>
     <row r="227" spans="1:5">
@@ -4213,7 +4213,7 @@
         <v>226</v>
       </c>
       <c r="B227">
-        <v>25629.42861347427</v>
+        <v>25629.42861347426</v>
       </c>
       <c r="C227">
         <v>27739.17959038798</v>
@@ -4222,7 +4222,7 @@
         <v>27711.47791342285</v>
       </c>
       <c r="E227">
-        <v>28266.68348276041</v>
+        <v>28266.68348276043</v>
       </c>
     </row>
     <row r="228" spans="1:5">
@@ -4236,10 +4236,10 @@
         <v>22151.14643972311</v>
       </c>
       <c r="D228">
-        <v>20505.80185569343</v>
+        <v>20505.80185569344</v>
       </c>
       <c r="E228">
-        <v>18945.50647378815</v>
+        <v>18945.50647378814</v>
       </c>
     </row>
     <row r="229" spans="1:5">
@@ -4247,7 +4247,7 @@
         <v>228</v>
       </c>
       <c r="B229">
-        <v>28563.31947480751</v>
+        <v>28563.31947480752</v>
       </c>
       <c r="C229">
         <v>30042.78215791632</v>
@@ -4264,16 +4264,16 @@
         <v>229</v>
       </c>
       <c r="B230">
-        <v>32239.09255842226</v>
+        <v>32239.09255842227</v>
       </c>
       <c r="C230">
-        <v>33601.45509982559</v>
+        <v>33601.45509982561</v>
       </c>
       <c r="D230">
-        <v>34390.05838118817</v>
+        <v>34390.05838118819</v>
       </c>
       <c r="E230">
-        <v>37816.49954907823</v>
+        <v>37816.49954907822</v>
       </c>
     </row>
     <row r="231" spans="1:5">
@@ -4284,13 +4284,13 @@
         <v>29196.13593784796</v>
       </c>
       <c r="C231">
-        <v>30883.25911930671</v>
+        <v>30883.25911930673</v>
       </c>
       <c r="D231">
         <v>31237.4783205683</v>
       </c>
       <c r="E231">
-        <v>33014.69785170274</v>
+        <v>33014.69785170275</v>
       </c>
     </row>
     <row r="232" spans="1:5">
@@ -4301,13 +4301,13 @@
         <v>27151.62637810423</v>
       </c>
       <c r="C232">
-        <v>28691.89338152177</v>
+        <v>28691.89338152178</v>
       </c>
       <c r="D232">
-        <v>28368.76582773654</v>
+        <v>28368.76582773653</v>
       </c>
       <c r="E232">
-        <v>29117.12224953295</v>
+        <v>29117.12224953294</v>
       </c>
     </row>
     <row r="233" spans="1:5">
@@ -4318,13 +4318,13 @@
         <v>27151.62637810423</v>
       </c>
       <c r="C233">
-        <v>28691.89338152177</v>
+        <v>28691.89338152178</v>
       </c>
       <c r="D233">
-        <v>28368.76582773654</v>
+        <v>28368.76582773653</v>
       </c>
       <c r="E233">
-        <v>29117.12224953295</v>
+        <v>29117.12224953294</v>
       </c>
     </row>
     <row r="234" spans="1:5">
@@ -4332,16 +4332,16 @@
         <v>233</v>
       </c>
       <c r="B234">
-        <v>31799.02903158388</v>
+        <v>31799.02903158389</v>
       </c>
       <c r="C234">
-        <v>33251.55712818007</v>
+        <v>33251.55712818006</v>
       </c>
       <c r="D234">
         <v>33210.65544327722</v>
       </c>
       <c r="E234">
-        <v>35253.96998296859</v>
+        <v>35253.9699829686</v>
       </c>
     </row>
     <row r="235" spans="1:5">
@@ -4349,16 +4349,16 @@
         <v>234</v>
       </c>
       <c r="B235">
-        <v>31799.02903158388</v>
+        <v>31799.02903158389</v>
       </c>
       <c r="C235">
-        <v>33251.55712818007</v>
+        <v>33251.55712818006</v>
       </c>
       <c r="D235">
         <v>33210.65544327722</v>
       </c>
       <c r="E235">
-        <v>35253.96998296859</v>
+        <v>35253.9699829686</v>
       </c>
     </row>
     <row r="236" spans="1:5">
@@ -4366,16 +4366,16 @@
         <v>235</v>
       </c>
       <c r="B236">
-        <v>31799.02903158388</v>
+        <v>31799.02903158389</v>
       </c>
       <c r="C236">
-        <v>33251.55712818007</v>
+        <v>33251.55712818006</v>
       </c>
       <c r="D236">
         <v>33210.65544327722</v>
       </c>
       <c r="E236">
-        <v>35253.96998296859</v>
+        <v>35253.9699829686</v>
       </c>
     </row>
     <row r="237" spans="1:5">
@@ -4383,7 +4383,7 @@
         <v>236</v>
       </c>
       <c r="B237">
-        <v>25629.42861347427</v>
+        <v>25629.42861347426</v>
       </c>
       <c r="C237">
         <v>27739.17959038798</v>
@@ -4392,7 +4392,7 @@
         <v>27711.47791342285</v>
       </c>
       <c r="E237">
-        <v>28266.68348276041</v>
+        <v>28266.68348276043</v>
       </c>
     </row>
     <row r="238" spans="1:5">
@@ -4400,7 +4400,7 @@
         <v>237</v>
       </c>
       <c r="B238">
-        <v>25629.42861347427</v>
+        <v>25629.42861347426</v>
       </c>
       <c r="C238">
         <v>27739.17959038798</v>
@@ -4409,7 +4409,7 @@
         <v>27711.47791342285</v>
       </c>
       <c r="E238">
-        <v>28266.68348276041</v>
+        <v>28266.68348276043</v>
       </c>
     </row>
     <row r="239" spans="1:5">
@@ -4417,7 +4417,7 @@
         <v>238</v>
       </c>
       <c r="B239">
-        <v>25629.42861347427</v>
+        <v>25629.42861347426</v>
       </c>
       <c r="C239">
         <v>27739.17959038798</v>
@@ -4426,7 +4426,7 @@
         <v>27711.47791342285</v>
       </c>
       <c r="E239">
-        <v>28266.68348276041</v>
+        <v>28266.68348276043</v>
       </c>
     </row>
     <row r="240" spans="1:5">
@@ -4434,10 +4434,10 @@
         <v>239</v>
       </c>
       <c r="B240">
-        <v>22771.60849857155</v>
+        <v>22771.60849857154</v>
       </c>
       <c r="C240">
-        <v>24324.65123203057</v>
+        <v>24324.65123203058</v>
       </c>
       <c r="D240">
         <v>22713.58266799007</v>
@@ -4451,16 +4451,16 @@
         <v>240</v>
       </c>
       <c r="B241">
-        <v>22819.3785620966</v>
+        <v>22819.37856209659</v>
       </c>
       <c r="C241">
-        <v>24460.30322908227</v>
+        <v>24460.30322908228</v>
       </c>
       <c r="D241">
         <v>23094.88223886863</v>
       </c>
       <c r="E241">
-        <v>21736.85897681636</v>
+        <v>21736.85897681635</v>
       </c>
     </row>
     <row r="242" spans="1:5">
@@ -4468,16 +4468,16 @@
         <v>241</v>
       </c>
       <c r="B242">
-        <v>32239.09255842226</v>
+        <v>32239.09255842227</v>
       </c>
       <c r="C242">
-        <v>33601.45509982559</v>
+        <v>33601.45509982561</v>
       </c>
       <c r="D242">
-        <v>34390.05838118817</v>
+        <v>34390.05838118819</v>
       </c>
       <c r="E242">
-        <v>37816.49954907823</v>
+        <v>37816.49954907822</v>
       </c>
     </row>
     <row r="243" spans="1:5">
@@ -4485,7 +4485,7 @@
         <v>242</v>
       </c>
       <c r="B243">
-        <v>34181.12502782168</v>
+        <v>34181.12502782167</v>
       </c>
       <c r="C243">
         <v>35328.51140813765</v>
@@ -4494,7 +4494,7 @@
         <v>36216.74187663724</v>
       </c>
       <c r="E243">
-        <v>40322.26460056138</v>
+        <v>40322.26460056139</v>
       </c>
     </row>
     <row r="244" spans="1:5">
@@ -4502,16 +4502,16 @@
         <v>243</v>
       </c>
       <c r="B244">
-        <v>32239.09255842226</v>
+        <v>32239.09255842227</v>
       </c>
       <c r="C244">
-        <v>33601.45509982559</v>
+        <v>33601.45509982561</v>
       </c>
       <c r="D244">
-        <v>34390.05838118817</v>
+        <v>34390.05838118819</v>
       </c>
       <c r="E244">
-        <v>37816.49954907823</v>
+        <v>37816.49954907822</v>
       </c>
     </row>
     <row r="245" spans="1:5">
@@ -4519,7 +4519,7 @@
         <v>244</v>
       </c>
       <c r="B245">
-        <v>34181.12502782168</v>
+        <v>34181.12502782167</v>
       </c>
       <c r="C245">
         <v>35328.51140813765</v>
@@ -4528,7 +4528,7 @@
         <v>36216.74187663724</v>
       </c>
       <c r="E245">
-        <v>40322.26460056138</v>
+        <v>40322.26460056139</v>
       </c>
     </row>
     <row r="246" spans="1:5">
@@ -4545,7 +4545,7 @@
         <v>37964.24673479197</v>
       </c>
       <c r="E246">
-        <v>41829.11963626633</v>
+        <v>41829.11963626632</v>
       </c>
     </row>
     <row r="247" spans="1:5">
@@ -4562,7 +4562,7 @@
         <v>37964.24673479197</v>
       </c>
       <c r="E247">
-        <v>41829.11963626633</v>
+        <v>41829.11963626632</v>
       </c>
     </row>
     <row r="248" spans="1:5">
@@ -4579,7 +4579,7 @@
         <v>29085.45447551875</v>
       </c>
       <c r="E248">
-        <v>30587.83702893182</v>
+        <v>30587.83702893183</v>
       </c>
     </row>
     <row r="249" spans="1:5">
@@ -4593,10 +4593,10 @@
         <v>22151.14643972311</v>
       </c>
       <c r="D249">
-        <v>20505.80185569343</v>
+        <v>20505.80185569344</v>
       </c>
       <c r="E249">
-        <v>18945.50647378815</v>
+        <v>18945.50647378814</v>
       </c>
     </row>
     <row r="250" spans="1:5">
@@ -4604,16 +4604,16 @@
         <v>249</v>
       </c>
       <c r="B250">
-        <v>43076.27397126495</v>
+        <v>43076.27397126496</v>
       </c>
       <c r="C250">
-        <v>44205.84595126479</v>
+        <v>44205.8459512648</v>
       </c>
       <c r="D250">
         <v>46101.69785630066</v>
       </c>
       <c r="E250">
-        <v>52874.48628770994</v>
+        <v>52874.48628770995</v>
       </c>
     </row>
     <row r="251" spans="1:5">
@@ -4621,7 +4621,7 @@
         <v>250</v>
       </c>
       <c r="B251">
-        <v>43491.24492723158</v>
+        <v>43491.24492723156</v>
       </c>
       <c r="C251">
         <v>44475.47262983496</v>
@@ -4641,13 +4641,13 @@
         <v>42102.49153472332</v>
       </c>
       <c r="C252">
-        <v>43394.50208883367</v>
+        <v>43394.50208883366</v>
       </c>
       <c r="D252">
-        <v>45195.60556981977</v>
+        <v>45195.60556981975</v>
       </c>
       <c r="E252">
-        <v>51431.22718386308</v>
+        <v>51431.22718386307</v>
       </c>
     </row>
     <row r="253" spans="1:5">
@@ -4655,16 +4655,16 @@
         <v>252</v>
       </c>
       <c r="B253">
-        <v>41284.25788244468</v>
+        <v>41284.25788244466</v>
       </c>
       <c r="C253">
         <v>42041.94056576437</v>
       </c>
       <c r="D253">
-        <v>43962.21595216891</v>
+        <v>43962.21595216892</v>
       </c>
       <c r="E253">
-        <v>50700.9737691478</v>
+        <v>50700.97376914782</v>
       </c>
     </row>
     <row r="254" spans="1:5">
@@ -4672,16 +4672,16 @@
         <v>253</v>
       </c>
       <c r="B254">
-        <v>43853.86974446207</v>
+        <v>43853.86974446206</v>
       </c>
       <c r="C254">
-        <v>44593.40835545077</v>
+        <v>44593.40835545078</v>
       </c>
       <c r="D254">
-        <v>46710.4339780502</v>
+        <v>46710.43397805021</v>
       </c>
       <c r="E254">
-        <v>54468.6619062919</v>
+        <v>54468.66190629194</v>
       </c>
     </row>
     <row r="255" spans="1:5">
@@ -4689,16 +4689,16 @@
         <v>254</v>
       </c>
       <c r="B255">
-        <v>41284.25788244468</v>
+        <v>41284.25788244466</v>
       </c>
       <c r="C255">
         <v>42041.94056576437</v>
       </c>
       <c r="D255">
-        <v>43962.21595216891</v>
+        <v>43962.21595216892</v>
       </c>
       <c r="E255">
-        <v>50700.9737691478</v>
+        <v>50700.97376914782</v>
       </c>
     </row>
     <row r="256" spans="1:5">
@@ -4706,16 +4706,16 @@
         <v>255</v>
       </c>
       <c r="B256">
-        <v>40853.90587675583</v>
+        <v>40853.90587675585</v>
       </c>
       <c r="C256">
-        <v>42246.22993940978</v>
+        <v>42246.22993940977</v>
       </c>
       <c r="D256">
-        <v>43953.39625724255</v>
+        <v>43953.39625724254</v>
       </c>
       <c r="E256">
-        <v>49673.34691858177</v>
+        <v>49673.34691858178</v>
       </c>
     </row>
     <row r="257" spans="1:5">
@@ -4726,13 +4726,13 @@
         <v>36189.99125633769</v>
       </c>
       <c r="C257">
-        <v>37346.71152594327</v>
+        <v>37346.71152594325</v>
       </c>
       <c r="D257">
-        <v>38668.79751258873</v>
+        <v>38668.79751258875</v>
       </c>
       <c r="E257">
-        <v>43492.9922272604</v>
+        <v>43492.99222726039</v>
       </c>
     </row>
     <row r="258" spans="1:5">
@@ -4740,10 +4740,10 @@
         <v>257</v>
       </c>
       <c r="B258">
-        <v>36844.09833016423</v>
+        <v>36844.09833016424</v>
       </c>
       <c r="C258">
-        <v>37515.88199088248</v>
+        <v>37515.88199088247</v>
       </c>
       <c r="D258">
         <v>38821.86037453939</v>
@@ -4757,10 +4757,10 @@
         <v>258</v>
       </c>
       <c r="B259">
-        <v>36844.09833016423</v>
+        <v>36844.09833016424</v>
       </c>
       <c r="C259">
-        <v>37515.88199088248</v>
+        <v>37515.88199088247</v>
       </c>
       <c r="D259">
         <v>38821.86037453939</v>
@@ -4774,7 +4774,7 @@
         <v>259</v>
       </c>
       <c r="B260">
-        <v>12071.26389500694</v>
+        <v>12071.26389500695</v>
       </c>
       <c r="C260">
         <v>12234.4507290703</v>
@@ -4791,16 +4791,16 @@
         <v>260</v>
       </c>
       <c r="B261">
-        <v>7952.786745162527</v>
+        <v>7952.786745162525</v>
       </c>
       <c r="C261">
-        <v>8013.250357988452</v>
+        <v>8013.25035798845</v>
       </c>
       <c r="D261">
-        <v>8588.062018488374</v>
+        <v>8588.062018488377</v>
       </c>
       <c r="E261">
-        <v>11110.03686389951</v>
+        <v>11110.0368638995</v>
       </c>
     </row>
     <row r="262" spans="1:5">
@@ -4808,7 +4808,7 @@
         <v>261</v>
       </c>
       <c r="B262">
-        <v>12242.03825317059</v>
+        <v>12242.0382531706</v>
       </c>
       <c r="C262">
         <v>12546.95485870656</v>
@@ -4817,7 +4817,7 @@
         <v>14253.0160103563</v>
       </c>
       <c r="E262">
-        <v>19272.89071028085</v>
+        <v>19272.89071028086</v>
       </c>
     </row>
     <row r="263" spans="1:5">
@@ -4825,7 +4825,7 @@
         <v>262</v>
       </c>
       <c r="B263">
-        <v>12242.03825317059</v>
+        <v>12242.0382531706</v>
       </c>
       <c r="C263">
         <v>12546.95485870656</v>
@@ -4834,7 +4834,7 @@
         <v>14253.0160103563</v>
       </c>
       <c r="E263">
-        <v>19272.89071028085</v>
+        <v>19272.89071028086</v>
       </c>
     </row>
     <row r="264" spans="1:5">
@@ -4848,10 +4848,10 @@
         <v>12211.07764099153</v>
       </c>
       <c r="D264">
-        <v>14424.71900846399</v>
+        <v>14424.71900846398</v>
       </c>
       <c r="E264">
-        <v>19963.54658426001</v>
+        <v>19963.54658426</v>
       </c>
     </row>
     <row r="265" spans="1:5">
@@ -4865,10 +4865,10 @@
         <v>12211.07764099153</v>
       </c>
       <c r="D265">
-        <v>14424.71900846399</v>
+        <v>14424.71900846398</v>
       </c>
       <c r="E265">
-        <v>19963.54658426001</v>
+        <v>19963.54658426</v>
       </c>
     </row>
     <row r="266" spans="1:5">
@@ -4876,16 +4876,16 @@
         <v>265</v>
       </c>
       <c r="B266">
-        <v>13759.26952792425</v>
+        <v>13759.26952792424</v>
       </c>
       <c r="C266">
-        <v>13726.08012177682</v>
+        <v>13726.08012177681</v>
       </c>
       <c r="D266">
         <v>14580.93113732849</v>
       </c>
       <c r="E266">
-        <v>18778.94900745436</v>
+        <v>18778.94900745437</v>
       </c>
     </row>
     <row r="267" spans="1:5">
@@ -4899,10 +4899,10 @@
         <v>12211.07764099153</v>
       </c>
       <c r="D267">
-        <v>14424.71900846399</v>
+        <v>14424.71900846398</v>
       </c>
       <c r="E267">
-        <v>19963.54658426001</v>
+        <v>19963.54658426</v>
       </c>
     </row>
     <row r="268" spans="1:5">
@@ -4910,16 +4910,16 @@
         <v>267</v>
       </c>
       <c r="B268">
-        <v>7952.786745162527</v>
+        <v>7952.786745162525</v>
       </c>
       <c r="C268">
-        <v>8013.250357988452</v>
+        <v>8013.25035798845</v>
       </c>
       <c r="D268">
-        <v>8588.062018488374</v>
+        <v>8588.062018488377</v>
       </c>
       <c r="E268">
-        <v>11110.03686389951</v>
+        <v>11110.0368638995</v>
       </c>
     </row>
     <row r="269" spans="1:5">
@@ -4927,16 +4927,16 @@
         <v>268</v>
       </c>
       <c r="B269">
-        <v>7952.786745162527</v>
+        <v>7952.786745162525</v>
       </c>
       <c r="C269">
-        <v>8013.250357988452</v>
+        <v>8013.25035798845</v>
       </c>
       <c r="D269">
-        <v>8588.062018488374</v>
+        <v>8588.062018488377</v>
       </c>
       <c r="E269">
-        <v>11110.03686389951</v>
+        <v>11110.0368638995</v>
       </c>
     </row>
     <row r="270" spans="1:5">
@@ -4947,13 +4947,13 @@
         <v>6595.563663115134</v>
       </c>
       <c r="C270">
-        <v>6644.684099983618</v>
+        <v>6644.684099983614</v>
       </c>
       <c r="D270">
         <v>7313.260386706014</v>
       </c>
       <c r="E270">
-        <v>9332.383930364265</v>
+        <v>9332.383930364264</v>
       </c>
     </row>
     <row r="271" spans="1:5">
@@ -4961,7 +4961,7 @@
         <v>270</v>
       </c>
       <c r="B271">
-        <v>4712.855656750548</v>
+        <v>4712.855656750549</v>
       </c>
       <c r="C271">
         <v>4650.982716547147</v>
@@ -4978,7 +4978,7 @@
         <v>271</v>
       </c>
       <c r="B272">
-        <v>4712.855656750548</v>
+        <v>4712.855656750549</v>
       </c>
       <c r="C272">
         <v>4650.982716547147</v>
@@ -4995,10 +4995,10 @@
         <v>272</v>
       </c>
       <c r="B273">
-        <v>7504.374926531815</v>
+        <v>7504.37492653181</v>
       </c>
       <c r="C273">
-        <v>7526.675619830408</v>
+        <v>7526.675619830406</v>
       </c>
       <c r="D273">
         <v>8122.258003895903</v>
@@ -5012,10 +5012,10 @@
         <v>273</v>
       </c>
       <c r="B274">
-        <v>7504.374926531815</v>
+        <v>7504.37492653181</v>
       </c>
       <c r="C274">
-        <v>7526.675619830408</v>
+        <v>7526.675619830406</v>
       </c>
       <c r="D274">
         <v>8122.258003895903</v>
@@ -5046,16 +5046,16 @@
         <v>275</v>
       </c>
       <c r="B276">
-        <v>6736.496072153984</v>
+        <v>6736.496072153985</v>
       </c>
       <c r="C276">
-        <v>6732.576418027896</v>
+        <v>6732.576418027897</v>
       </c>
       <c r="D276">
         <v>6360.966058203521</v>
       </c>
       <c r="E276">
-        <v>6435.909842407665</v>
+        <v>6435.909842407666</v>
       </c>
     </row>
     <row r="277" spans="1:5">
@@ -5080,13 +5080,13 @@
         <v>277</v>
       </c>
       <c r="B278">
-        <v>21012.15895346434</v>
+        <v>21012.15895346435</v>
       </c>
       <c r="C278">
         <v>23057.51470281331</v>
       </c>
       <c r="D278">
-        <v>24752.47312009115</v>
+        <v>24752.47312009116</v>
       </c>
       <c r="E278">
         <v>28369.19534878418</v>
@@ -5100,13 +5100,13 @@
         <v>26490.91767855017</v>
       </c>
       <c r="C279">
-        <v>28095.6784124026</v>
+        <v>28095.67841240259</v>
       </c>
       <c r="D279">
         <v>28433.37709648439</v>
       </c>
       <c r="E279">
-        <v>30369.84388092736</v>
+        <v>30369.84388092734</v>
       </c>
     </row>
     <row r="280" spans="1:5">
@@ -5117,13 +5117,13 @@
         <v>26490.91767855017</v>
       </c>
       <c r="C280">
-        <v>28095.6784124026</v>
+        <v>28095.67841240259</v>
       </c>
       <c r="D280">
         <v>28433.37709648439</v>
       </c>
       <c r="E280">
-        <v>30369.84388092736</v>
+        <v>30369.84388092734</v>
       </c>
     </row>
     <row r="281" spans="1:5">
@@ -5134,13 +5134,13 @@
         <v>6565.764674224593</v>
       </c>
       <c r="C281">
-        <v>6668.964765885404</v>
+        <v>6668.964765885401</v>
       </c>
       <c r="D281">
-        <v>6196.508043384578</v>
+        <v>6196.508043384577</v>
       </c>
       <c r="E281">
-        <v>6021.357961105646</v>
+        <v>6021.357961105648</v>
       </c>
     </row>
     <row r="282" spans="1:5">
@@ -5148,7 +5148,7 @@
         <v>281</v>
       </c>
       <c r="B282">
-        <v>5660.042903923238</v>
+        <v>5660.042903923237</v>
       </c>
       <c r="C282">
         <v>5749.636294248897</v>
@@ -5157,7 +5157,7 @@
         <v>5630.377635273345</v>
       </c>
       <c r="E282">
-        <v>5805.203486606976</v>
+        <v>5805.203486606977</v>
       </c>
     </row>
     <row r="283" spans="1:5">
@@ -5165,7 +5165,7 @@
         <v>282</v>
       </c>
       <c r="B283">
-        <v>5660.042903923238</v>
+        <v>5660.042903923237</v>
       </c>
       <c r="C283">
         <v>5749.636294248897</v>
@@ -5174,7 +5174,7 @@
         <v>5630.377635273345</v>
       </c>
       <c r="E283">
-        <v>5805.203486606976</v>
+        <v>5805.203486606977</v>
       </c>
     </row>
     <row r="284" spans="1:5">
@@ -5182,7 +5182,7 @@
         <v>283</v>
       </c>
       <c r="B284">
-        <v>5660.042903923238</v>
+        <v>5660.042903923237</v>
       </c>
       <c r="C284">
         <v>5749.636294248897</v>
@@ -5191,7 +5191,7 @@
         <v>5630.377635273345</v>
       </c>
       <c r="E284">
-        <v>5805.203486606976</v>
+        <v>5805.203486606977</v>
       </c>
     </row>
     <row r="285" spans="1:5">
@@ -5199,16 +5199,16 @@
         <v>284</v>
       </c>
       <c r="B285">
-        <v>6736.496072153984</v>
+        <v>6736.496072153985</v>
       </c>
       <c r="C285">
-        <v>6732.576418027896</v>
+        <v>6732.576418027897</v>
       </c>
       <c r="D285">
         <v>6360.966058203521</v>
       </c>
       <c r="E285">
-        <v>6435.909842407665</v>
+        <v>6435.909842407666</v>
       </c>
     </row>
     <row r="286" spans="1:5">
@@ -5219,13 +5219,13 @@
         <v>26490.91767855017</v>
       </c>
       <c r="C286">
-        <v>28095.6784124026</v>
+        <v>28095.67841240259</v>
       </c>
       <c r="D286">
         <v>28433.37709648439</v>
       </c>
       <c r="E286">
-        <v>30369.84388092736</v>
+        <v>30369.84388092734</v>
       </c>
     </row>
     <row r="287" spans="1:5">
@@ -5236,10 +5236,10 @@
         <v>31628.88627269163</v>
       </c>
       <c r="C287">
-        <v>32531.54517196304</v>
+        <v>32531.54517196305</v>
       </c>
       <c r="D287">
-        <v>34865.22432342319</v>
+        <v>34865.22432342318</v>
       </c>
       <c r="E287">
         <v>42785.84603601464</v>
@@ -5253,13 +5253,13 @@
         <v>24613.7737603649</v>
       </c>
       <c r="C288">
-        <v>25578.45939847358</v>
+        <v>25578.45939847357</v>
       </c>
       <c r="D288">
-        <v>28316.81798119911</v>
+        <v>28316.8179811991</v>
       </c>
       <c r="E288">
-        <v>35696.53467706762</v>
+        <v>35696.53467706763</v>
       </c>
     </row>
     <row r="289" spans="1:5">
@@ -5273,10 +5273,10 @@
         <v>33078.75751420741</v>
       </c>
       <c r="D289">
-        <v>34107.70614244559</v>
+        <v>34107.7061424456</v>
       </c>
       <c r="E289">
-        <v>40897.89128933824</v>
+        <v>40897.89128933827</v>
       </c>
     </row>
     <row r="290" spans="1:5">
@@ -5287,10 +5287,10 @@
         <v>31628.88627269163</v>
       </c>
       <c r="C290">
-        <v>32531.54517196304</v>
+        <v>32531.54517196305</v>
       </c>
       <c r="D290">
-        <v>34865.22432342319</v>
+        <v>34865.22432342318</v>
       </c>
       <c r="E290">
         <v>42785.84603601464</v>
@@ -5301,16 +5301,16 @@
         <v>290</v>
       </c>
       <c r="B291">
-        <v>22461.74449765707</v>
+        <v>22461.74449765708</v>
       </c>
       <c r="C291">
-        <v>23490.13538365432</v>
+        <v>23490.13538365433</v>
       </c>
       <c r="D291">
         <v>26409.6971532442</v>
       </c>
       <c r="E291">
-        <v>33818.09649031575</v>
+        <v>33818.09649031574</v>
       </c>
     </row>
     <row r="292" spans="1:5">
@@ -5321,13 +5321,13 @@
         <v>27385.08783752185</v>
       </c>
       <c r="C292">
-        <v>28313.42561993652</v>
+        <v>28313.42561993651</v>
       </c>
       <c r="D292">
-        <v>30470.30780698827</v>
+        <v>30470.30780698828</v>
       </c>
       <c r="E292">
-        <v>37383.345195456</v>
+        <v>37383.34519545598</v>
       </c>
     </row>
     <row r="293" spans="1:5">
@@ -5341,10 +5341,10 @@
         <v>28889.98608899218</v>
       </c>
       <c r="D293">
-        <v>31392.41233082458</v>
+        <v>31392.4123308246</v>
       </c>
       <c r="E293">
-        <v>38644.02198540617</v>
+        <v>38644.02198540614</v>
       </c>
     </row>
     <row r="294" spans="1:5">
@@ -5355,13 +5355,13 @@
         <v>27385.08783752185</v>
       </c>
       <c r="C294">
-        <v>28313.42561993652</v>
+        <v>28313.42561993651</v>
       </c>
       <c r="D294">
-        <v>30470.30780698827</v>
+        <v>30470.30780698828</v>
       </c>
       <c r="E294">
-        <v>37383.345195456</v>
+        <v>37383.34519545598</v>
       </c>
     </row>
     <row r="295" spans="1:5">
@@ -5369,16 +5369,16 @@
         <v>294</v>
       </c>
       <c r="B295">
-        <v>23537.58890874734</v>
+        <v>23537.58890874735</v>
       </c>
       <c r="C295">
-        <v>24074.89226986756</v>
+        <v>24074.89226986755</v>
       </c>
       <c r="D295">
-        <v>27185.80997843392</v>
+        <v>27185.80997843391</v>
       </c>
       <c r="E295">
-        <v>34596.23531674396</v>
+        <v>34596.23531674394</v>
       </c>
     </row>
     <row r="296" spans="1:5">
@@ -5386,16 +5386,16 @@
         <v>295</v>
       </c>
       <c r="B296">
-        <v>25590.18334231111</v>
+        <v>25590.18334231112</v>
       </c>
       <c r="C296">
-        <v>26235.59135552084</v>
+        <v>26235.59135552083</v>
       </c>
       <c r="D296">
         <v>29510.95600557812</v>
       </c>
       <c r="E296">
-        <v>37387.18525345092</v>
+        <v>37387.18525345091</v>
       </c>
     </row>
     <row r="297" spans="1:5">
@@ -5409,10 +5409,10 @@
         <v>24680.72643244263</v>
       </c>
       <c r="D297">
-        <v>28061.8049453674</v>
+        <v>28061.80494536741</v>
       </c>
       <c r="E297">
-        <v>35797.48524907704</v>
+        <v>35797.48524907702</v>
       </c>
     </row>
     <row r="298" spans="1:5">
@@ -5420,7 +5420,7 @@
         <v>297</v>
       </c>
       <c r="B298">
-        <v>22063.58802427787</v>
+        <v>22063.58802427786</v>
       </c>
       <c r="C298">
         <v>22794.99965258051</v>
@@ -5429,7 +5429,7 @@
         <v>26445.88536932304</v>
       </c>
       <c r="E298">
-        <v>34163.98111582611</v>
+        <v>34163.9811158261</v>
       </c>
     </row>
     <row r="299" spans="1:5">
@@ -5437,13 +5437,13 @@
         <v>298</v>
       </c>
       <c r="B299">
-        <v>21334.80329177604</v>
+        <v>21334.80329177603</v>
       </c>
       <c r="C299">
-        <v>22004.4655500965</v>
+        <v>22004.46555009649</v>
       </c>
       <c r="D299">
-        <v>25477.87979855818</v>
+        <v>25477.87979855817</v>
       </c>
       <c r="E299">
         <v>33004.64204585648</v>
@@ -5454,16 +5454,16 @@
         <v>299</v>
       </c>
       <c r="B300">
-        <v>23537.58890874734</v>
+        <v>23537.58890874735</v>
       </c>
       <c r="C300">
-        <v>24074.89226986756</v>
+        <v>24074.89226986755</v>
       </c>
       <c r="D300">
-        <v>27185.80997843392</v>
+        <v>27185.80997843391</v>
       </c>
       <c r="E300">
-        <v>34596.23531674396</v>
+        <v>34596.23531674394</v>
       </c>
     </row>
     <row r="301" spans="1:5">
@@ -5471,16 +5471,16 @@
         <v>300</v>
       </c>
       <c r="B301">
-        <v>25590.18334231111</v>
+        <v>25590.18334231112</v>
       </c>
       <c r="C301">
-        <v>26235.59135552084</v>
+        <v>26235.59135552083</v>
       </c>
       <c r="D301">
         <v>29510.95600557812</v>
       </c>
       <c r="E301">
-        <v>37387.18525345092</v>
+        <v>37387.18525345091</v>
       </c>
     </row>
     <row r="302" spans="1:5">
@@ -5488,7 +5488,7 @@
         <v>301</v>
       </c>
       <c r="B302">
-        <v>22063.58802427787</v>
+        <v>22063.58802427786</v>
       </c>
       <c r="C302">
         <v>22794.99965258051</v>
@@ -5497,7 +5497,7 @@
         <v>26445.88536932304</v>
       </c>
       <c r="E302">
-        <v>34163.98111582611</v>
+        <v>34163.9811158261</v>
       </c>
     </row>
     <row r="303" spans="1:5">
@@ -5505,7 +5505,7 @@
         <v>302</v>
       </c>
       <c r="B303">
-        <v>22063.58802427787</v>
+        <v>22063.58802427786</v>
       </c>
       <c r="C303">
         <v>22794.99965258051</v>
@@ -5514,7 +5514,7 @@
         <v>26445.88536932304</v>
       </c>
       <c r="E303">
-        <v>34163.98111582611</v>
+        <v>34163.9811158261</v>
       </c>
     </row>
     <row r="304" spans="1:5">
@@ -5528,10 +5528,10 @@
         <v>20876.37306121523</v>
       </c>
       <c r="D304">
-        <v>23517.89945445593</v>
+        <v>23517.89945445594</v>
       </c>
       <c r="E304">
-        <v>30017.78263288813</v>
+        <v>30017.78263288814</v>
       </c>
     </row>
     <row r="305" spans="1:5">
@@ -5545,10 +5545,10 @@
         <v>20876.37306121523</v>
       </c>
       <c r="D305">
-        <v>23517.89945445593</v>
+        <v>23517.89945445594</v>
       </c>
       <c r="E305">
-        <v>30017.78263288813</v>
+        <v>30017.78263288814</v>
       </c>
     </row>
     <row r="306" spans="1:5">
@@ -5559,7 +5559,7 @@
         <v>22859.23256142592</v>
       </c>
       <c r="C306">
-        <v>22843.28608728732</v>
+        <v>22843.28608728733</v>
       </c>
       <c r="D306">
         <v>24874.54474961795</v>
@@ -5579,10 +5579,10 @@
         <v>20876.37306121523</v>
       </c>
       <c r="D307">
-        <v>23517.89945445593</v>
+        <v>23517.89945445594</v>
       </c>
       <c r="E307">
-        <v>30017.78263288813</v>
+        <v>30017.78263288814</v>
       </c>
     </row>
     <row r="308" spans="1:5">
@@ -5593,7 +5593,7 @@
         <v>22859.23256142592</v>
       </c>
       <c r="C308">
-        <v>22843.28608728732</v>
+        <v>22843.28608728733</v>
       </c>
       <c r="D308">
         <v>24874.54474961795</v>
@@ -5610,7 +5610,7 @@
         <v>22859.23256142592</v>
       </c>
       <c r="C309">
-        <v>22843.28608728732</v>
+        <v>22843.28608728733</v>
       </c>
       <c r="D309">
         <v>24874.54474961795</v>
@@ -5630,10 +5630,10 @@
         <v>20876.37306121523</v>
       </c>
       <c r="D310">
-        <v>23517.89945445593</v>
+        <v>23517.89945445594</v>
       </c>
       <c r="E310">
-        <v>30017.78263288813</v>
+        <v>30017.78263288814</v>
       </c>
     </row>
     <row r="311" spans="1:5">
@@ -5641,16 +5641,16 @@
         <v>310</v>
       </c>
       <c r="B311">
-        <v>8406.025630395305</v>
+        <v>8406.025630395308</v>
       </c>
       <c r="C311">
-        <v>8284.946732519022</v>
+        <v>8284.94673251902</v>
       </c>
       <c r="D311">
-        <v>8388.082822199256</v>
+        <v>8388.082822199258</v>
       </c>
       <c r="E311">
-        <v>9685.44251059916</v>
+        <v>9685.442510599158</v>
       </c>
     </row>
     <row r="312" spans="1:5">
@@ -5658,16 +5658,16 @@
         <v>311</v>
       </c>
       <c r="B312">
-        <v>8406.025630395305</v>
+        <v>8406.025630395308</v>
       </c>
       <c r="C312">
-        <v>8284.946732519022</v>
+        <v>8284.94673251902</v>
       </c>
       <c r="D312">
-        <v>8388.082822199256</v>
+        <v>8388.082822199258</v>
       </c>
       <c r="E312">
-        <v>9685.44251059916</v>
+        <v>9685.442510599158</v>
       </c>
     </row>
     <row r="313" spans="1:5">
@@ -5675,16 +5675,16 @@
         <v>312</v>
       </c>
       <c r="B313">
-        <v>8406.025630395305</v>
+        <v>8406.025630395308</v>
       </c>
       <c r="C313">
-        <v>8284.946732519022</v>
+        <v>8284.94673251902</v>
       </c>
       <c r="D313">
-        <v>8388.082822199256</v>
+        <v>8388.082822199258</v>
       </c>
       <c r="E313">
-        <v>9685.44251059916</v>
+        <v>9685.442510599158</v>
       </c>
     </row>
     <row r="314" spans="1:5">
@@ -5692,16 +5692,16 @@
         <v>313</v>
       </c>
       <c r="B314">
-        <v>8406.025630395305</v>
+        <v>8406.025630395308</v>
       </c>
       <c r="C314">
-        <v>8284.946732519022</v>
+        <v>8284.94673251902</v>
       </c>
       <c r="D314">
-        <v>8388.082822199256</v>
+        <v>8388.082822199258</v>
       </c>
       <c r="E314">
-        <v>9685.44251059916</v>
+        <v>9685.442510599158</v>
       </c>
     </row>
     <row r="315" spans="1:5">
@@ -5715,10 +5715,10 @@
         <v>34683.45875396644</v>
       </c>
       <c r="D315">
-        <v>38279.74967785421</v>
+        <v>38279.74967785423</v>
       </c>
       <c r="E315">
-        <v>48137.44008010915</v>
+        <v>48137.44008010918</v>
       </c>
     </row>
     <row r="316" spans="1:5">
@@ -5726,16 +5726,16 @@
         <v>315</v>
       </c>
       <c r="B316">
-        <v>41906.8188007348</v>
+        <v>41906.81880073481</v>
       </c>
       <c r="C316">
-        <v>42437.05435474686</v>
+        <v>42437.05435474688</v>
       </c>
       <c r="D316">
-        <v>46374.81574388918</v>
+        <v>46374.8157438892</v>
       </c>
       <c r="E316">
-        <v>57291.62801706066</v>
+        <v>57291.62801706065</v>
       </c>
     </row>
     <row r="317" spans="1:5">
@@ -5746,10 +5746,10 @@
         <v>41324.87166118652</v>
       </c>
       <c r="C317">
-        <v>41588.38601367343</v>
+        <v>41588.38601367344</v>
       </c>
       <c r="D317">
-        <v>44928.10275520648</v>
+        <v>44928.10275520647</v>
       </c>
       <c r="E317">
         <v>55412.67517394473</v>
@@ -5777,16 +5777,16 @@
         <v>318</v>
       </c>
       <c r="B319">
-        <v>33696.49295660108</v>
+        <v>33696.49295660109</v>
       </c>
       <c r="C319">
-        <v>33989.69924769771</v>
+        <v>33989.6992476977</v>
       </c>
       <c r="D319">
         <v>37346.20796668598</v>
       </c>
       <c r="E319">
-        <v>47119.76871424802</v>
+        <v>47119.76871424801</v>
       </c>
     </row>
     <row r="320" spans="1:5">
@@ -5794,7 +5794,7 @@
         <v>319</v>
       </c>
       <c r="B320">
-        <v>35879.67801041007</v>
+        <v>35879.67801041006</v>
       </c>
       <c r="C320">
         <v>36276.63076977969</v>
@@ -5803,7 +5803,7 @@
         <v>39662.22866363002</v>
       </c>
       <c r="E320">
-        <v>49488.95161368616</v>
+        <v>49488.95161368618</v>
       </c>
     </row>
     <row r="321" spans="1:5">
@@ -5811,10 +5811,10 @@
         <v>320</v>
       </c>
       <c r="B321">
-        <v>38646.01475537324</v>
+        <v>38646.01475537322</v>
       </c>
       <c r="C321">
-        <v>38924.13676958789</v>
+        <v>38924.13676958787</v>
       </c>
       <c r="D321">
         <v>42193.42539769698</v>
@@ -5828,13 +5828,13 @@
         <v>321</v>
       </c>
       <c r="B322">
-        <v>32319.70684611428</v>
+        <v>32319.70684611426</v>
       </c>
       <c r="C322">
         <v>32880.66785683524</v>
       </c>
       <c r="D322">
-        <v>36396.69395263639</v>
+        <v>36396.6939526364</v>
       </c>
       <c r="E322">
         <v>45897.11267597495</v>
@@ -5845,13 +5845,13 @@
         <v>322</v>
       </c>
       <c r="B323">
-        <v>36705.83811682954</v>
+        <v>36705.83811682953</v>
       </c>
       <c r="C323">
-        <v>36994.28307319752</v>
+        <v>36994.28307319753</v>
       </c>
       <c r="D323">
-        <v>39881.37737961302</v>
+        <v>39881.37737961303</v>
       </c>
       <c r="E323">
         <v>49689.99054710941</v>
@@ -5862,13 +5862,13 @@
         <v>323</v>
       </c>
       <c r="B324">
-        <v>36705.83811682954</v>
+        <v>36705.83811682953</v>
       </c>
       <c r="C324">
-        <v>36994.28307319752</v>
+        <v>36994.28307319753</v>
       </c>
       <c r="D324">
-        <v>39881.37737961302</v>
+        <v>39881.37737961303</v>
       </c>
       <c r="E324">
         <v>49689.99054710941</v>
@@ -5879,13 +5879,13 @@
         <v>324</v>
       </c>
       <c r="B325">
-        <v>36705.83811682954</v>
+        <v>36705.83811682953</v>
       </c>
       <c r="C325">
-        <v>36994.28307319752</v>
+        <v>36994.28307319753</v>
       </c>
       <c r="D325">
-        <v>39881.37737961302</v>
+        <v>39881.37737961303</v>
       </c>
       <c r="E325">
         <v>49689.99054710941</v>
@@ -5896,16 +5896,16 @@
         <v>325</v>
       </c>
       <c r="B326">
-        <v>40719.3328193376</v>
+        <v>40719.33281933761</v>
       </c>
       <c r="C326">
-        <v>41051.66546406946</v>
+        <v>41051.66546406948</v>
       </c>
       <c r="D326">
         <v>43977.78763931589</v>
       </c>
       <c r="E326">
-        <v>54421.91794575159</v>
+        <v>54421.91794575156</v>
       </c>
     </row>
     <row r="327" spans="1:5">
@@ -5913,7 +5913,7 @@
         <v>326</v>
       </c>
       <c r="B327">
-        <v>29150.29826655417</v>
+        <v>29150.29826655416</v>
       </c>
       <c r="C327">
         <v>29196.83765209874</v>
@@ -5922,7 +5922,7 @@
         <v>30916.05428378773</v>
       </c>
       <c r="E327">
-        <v>38864.32316390375</v>
+        <v>38864.32316390374</v>
       </c>
     </row>
     <row r="328" spans="1:5">
@@ -5930,7 +5930,7 @@
         <v>327</v>
       </c>
       <c r="B328">
-        <v>29150.29826655417</v>
+        <v>29150.29826655416</v>
       </c>
       <c r="C328">
         <v>29196.83765209874</v>
@@ -5939,7 +5939,7 @@
         <v>30916.05428378773</v>
       </c>
       <c r="E328">
-        <v>38864.32316390375</v>
+        <v>38864.32316390374</v>
       </c>
     </row>
     <row r="329" spans="1:5">
@@ -5947,16 +5947,16 @@
         <v>328</v>
       </c>
       <c r="B329">
-        <v>27658.31910540136</v>
+        <v>27658.31910540137</v>
       </c>
       <c r="C329">
         <v>27771.46516178381</v>
       </c>
       <c r="D329">
-        <v>29563.62256773121</v>
+        <v>29563.62256773122</v>
       </c>
       <c r="E329">
-        <v>37181.86771988567</v>
+        <v>37181.86771988564</v>
       </c>
     </row>
     <row r="330" spans="1:5">
@@ -5964,7 +5964,7 @@
         <v>329</v>
       </c>
       <c r="B330">
-        <v>29150.29826655417</v>
+        <v>29150.29826655416</v>
       </c>
       <c r="C330">
         <v>29196.83765209874</v>
@@ -5973,7 +5973,7 @@
         <v>30916.05428378773</v>
       </c>
       <c r="E330">
-        <v>38864.32316390375</v>
+        <v>38864.32316390374</v>
       </c>
     </row>
     <row r="331" spans="1:5">
@@ -5981,7 +5981,7 @@
         <v>330</v>
       </c>
       <c r="B331">
-        <v>29150.29826655417</v>
+        <v>29150.29826655416</v>
       </c>
       <c r="C331">
         <v>29196.83765209874</v>
@@ -5990,7 +5990,7 @@
         <v>30916.05428378773</v>
       </c>
       <c r="E331">
-        <v>38864.32316390375</v>
+        <v>38864.32316390374</v>
       </c>
     </row>
     <row r="332" spans="1:5">
@@ -6001,10 +6001,10 @@
         <v>33867.25284447186</v>
       </c>
       <c r="C332">
-        <v>33554.50812145974</v>
+        <v>33554.50812145973</v>
       </c>
       <c r="D332">
-        <v>35119.35754163698</v>
+        <v>35119.35754163699</v>
       </c>
       <c r="E332">
         <v>43176.64398950375</v>
@@ -6015,16 +6015,16 @@
         <v>332</v>
       </c>
       <c r="B333">
-        <v>36276.21032234194</v>
+        <v>36276.21032234193</v>
       </c>
       <c r="C333">
-        <v>36308.86147679897</v>
+        <v>36308.86147679899</v>
       </c>
       <c r="D333">
         <v>38632.82007421407</v>
       </c>
       <c r="E333">
-        <v>47253.48634531764</v>
+        <v>47253.48634531766</v>
       </c>
     </row>
     <row r="334" spans="1:5">
@@ -6032,16 +6032,16 @@
         <v>333</v>
       </c>
       <c r="B334">
-        <v>38390.07139874477</v>
+        <v>38390.07139874476</v>
       </c>
       <c r="C334">
-        <v>38266.17574128338</v>
+        <v>38266.1757412834</v>
       </c>
       <c r="D334">
-        <v>40435.38583793014</v>
+        <v>40435.38583793012</v>
       </c>
       <c r="E334">
-        <v>49175.96130819558</v>
+        <v>49175.9613081956</v>
       </c>
     </row>
     <row r="335" spans="1:5">
@@ -6049,16 +6049,16 @@
         <v>334</v>
       </c>
       <c r="B335">
-        <v>35213.14503336034</v>
+        <v>35213.14503336033</v>
       </c>
       <c r="C335">
-        <v>35139.76260019203</v>
+        <v>35139.76260019202</v>
       </c>
       <c r="D335">
         <v>37259.25950568691</v>
       </c>
       <c r="E335">
-        <v>45346.40291255248</v>
+        <v>45346.40291255247</v>
       </c>
     </row>
     <row r="336" spans="1:5">
@@ -6066,7 +6066,7 @@
         <v>335</v>
       </c>
       <c r="B336">
-        <v>31395.89396011082</v>
+        <v>31395.89396011081</v>
       </c>
       <c r="C336">
         <v>30980.6864328087</v>
@@ -6089,7 +6089,7 @@
         <v>16572.78672144518</v>
       </c>
       <c r="D337">
-        <v>18884.43829435889</v>
+        <v>18884.4382943589</v>
       </c>
       <c r="E337">
         <v>21489.92025648324</v>
@@ -6100,7 +6100,7 @@
         <v>337</v>
       </c>
       <c r="B338">
-        <v>14561.88371981496</v>
+        <v>14561.88371981497</v>
       </c>
       <c r="C338">
         <v>17633.18395257545</v>
@@ -6109,7 +6109,7 @@
         <v>21961.17041066524</v>
       </c>
       <c r="E338">
-        <v>26318.05195889571</v>
+        <v>26318.05195889572</v>
       </c>
     </row>
     <row r="339" spans="1:5">
@@ -6123,7 +6123,7 @@
         <v>16572.78672144518</v>
       </c>
       <c r="D339">
-        <v>18884.43829435889</v>
+        <v>18884.4382943589</v>
       </c>
       <c r="E339">
         <v>21489.92025648324</v>
@@ -6134,7 +6134,7 @@
         <v>339</v>
       </c>
       <c r="B340">
-        <v>12421.12675365307</v>
+        <v>12421.12675365306</v>
       </c>
       <c r="C340">
         <v>14416.38513529586</v>
@@ -6151,7 +6151,7 @@
         <v>340</v>
       </c>
       <c r="B341">
-        <v>12421.12675365307</v>
+        <v>12421.12675365306</v>
       </c>
       <c r="C341">
         <v>14416.38513529586</v>
@@ -6174,10 +6174,10 @@
         <v>16147.60315705469</v>
       </c>
       <c r="D342">
-        <v>19565.89545528724</v>
+        <v>19565.89545528725</v>
       </c>
       <c r="E342">
-        <v>23165.98221420307</v>
+        <v>23165.98221420308</v>
       </c>
     </row>
     <row r="343" spans="1:5">
@@ -6191,10 +6191,10 @@
         <v>16147.60315705469</v>
       </c>
       <c r="D343">
-        <v>19565.89545528724</v>
+        <v>19565.89545528725</v>
       </c>
       <c r="E343">
-        <v>23165.98221420307</v>
+        <v>23165.98221420308</v>
       </c>
     </row>
     <row r="344" spans="1:5">
@@ -6202,7 +6202,7 @@
         <v>343</v>
       </c>
       <c r="B344">
-        <v>12421.12675365307</v>
+        <v>12421.12675365306</v>
       </c>
       <c r="C344">
         <v>14416.38513529586</v>
@@ -6219,13 +6219,13 @@
         <v>344</v>
       </c>
       <c r="B345">
-        <v>8235.662312113689</v>
+        <v>8235.662312113691</v>
       </c>
       <c r="C345">
-        <v>9326.613764320931</v>
+        <v>9326.613764320933</v>
       </c>
       <c r="D345">
-        <v>10782.03958461212</v>
+        <v>10782.03958461211</v>
       </c>
       <c r="E345">
         <v>12579.14778741028</v>
@@ -6236,13 +6236,13 @@
         <v>345</v>
       </c>
       <c r="B346">
-        <v>8235.662312113689</v>
+        <v>8235.662312113691</v>
       </c>
       <c r="C346">
-        <v>9326.613764320931</v>
+        <v>9326.613764320933</v>
       </c>
       <c r="D346">
-        <v>10782.03958461212</v>
+        <v>10782.03958461211</v>
       </c>
       <c r="E346">
         <v>12579.14778741028</v>
@@ -6253,13 +6253,13 @@
         <v>346</v>
       </c>
       <c r="B347">
-        <v>8235.662312113689</v>
+        <v>8235.662312113691</v>
       </c>
       <c r="C347">
-        <v>9326.613764320931</v>
+        <v>9326.613764320933</v>
       </c>
       <c r="D347">
-        <v>10782.03958461212</v>
+        <v>10782.03958461211</v>
       </c>
       <c r="E347">
         <v>12579.14778741028</v>
@@ -6321,16 +6321,16 @@
         <v>350</v>
       </c>
       <c r="B351">
-        <v>5361.219898912447</v>
+        <v>5361.219898912449</v>
       </c>
       <c r="C351">
-        <v>5914.654598920332</v>
+        <v>5914.654598920333</v>
       </c>
       <c r="D351">
-        <v>6695.858495130625</v>
+        <v>6695.858495130622</v>
       </c>
       <c r="E351">
-        <v>7758.082850273016</v>
+        <v>7758.082850273017</v>
       </c>
     </row>
     <row r="352" spans="1:5">
@@ -6338,16 +6338,16 @@
         <v>351</v>
       </c>
       <c r="B352">
-        <v>5361.219898912447</v>
+        <v>5361.219898912449</v>
       </c>
       <c r="C352">
-        <v>5914.654598920332</v>
+        <v>5914.654598920333</v>
       </c>
       <c r="D352">
-        <v>6695.858495130625</v>
+        <v>6695.858495130622</v>
       </c>
       <c r="E352">
-        <v>7758.082850273016</v>
+        <v>7758.082850273017</v>
       </c>
     </row>
     <row r="353" spans="1:5">
@@ -6358,13 +6358,13 @@
         <v>19861.34090929592</v>
       </c>
       <c r="C353">
-        <v>21513.51143657896</v>
+        <v>21513.51143657897</v>
       </c>
       <c r="D353">
         <v>19890.66040538272</v>
       </c>
       <c r="E353">
-        <v>17574.31160753155</v>
+        <v>17574.31160753156</v>
       </c>
     </row>
     <row r="354" spans="1:5">
@@ -6375,7 +6375,7 @@
         <v>19697.29578788634</v>
       </c>
       <c r="C354">
-        <v>21281.20508451239</v>
+        <v>21281.20508451238</v>
       </c>
       <c r="D354">
         <v>19566.36997560725</v>
@@ -6392,13 +6392,13 @@
         <v>19861.34090929592</v>
       </c>
       <c r="C355">
-        <v>21513.51143657896</v>
+        <v>21513.51143657897</v>
       </c>
       <c r="D355">
         <v>19890.66040538272</v>
       </c>
       <c r="E355">
-        <v>17574.31160753155</v>
+        <v>17574.31160753156</v>
       </c>
     </row>
     <row r="356" spans="1:5">
@@ -6409,7 +6409,7 @@
         <v>14381.02459328807</v>
       </c>
       <c r="C356">
-        <v>15971.78906768675</v>
+        <v>15971.78906768674</v>
       </c>
       <c r="D356">
         <v>15177.44833768874</v>
@@ -6426,7 +6426,7 @@
         <v>14381.02459328807</v>
       </c>
       <c r="C357">
-        <v>15971.78906768675</v>
+        <v>15971.78906768674</v>
       </c>
       <c r="D357">
         <v>15177.44833768874</v>
@@ -6443,7 +6443,7 @@
         <v>14381.02459328807</v>
       </c>
       <c r="C358">
-        <v>15971.78906768675</v>
+        <v>15971.78906768674</v>
       </c>
       <c r="D358">
         <v>15177.44833768874</v>
@@ -6457,16 +6457,16 @@
         <v>358</v>
       </c>
       <c r="B359">
-        <v>5951.992161453021</v>
+        <v>5951.99216145302</v>
       </c>
       <c r="C359">
         <v>6942.380472376632</v>
       </c>
       <c r="D359">
-        <v>8086.270645292873</v>
+        <v>8086.270645292874</v>
       </c>
       <c r="E359">
-        <v>7904.841568241269</v>
+        <v>7904.841568241267</v>
       </c>
     </row>
     <row r="360" spans="1:5">
@@ -6474,16 +6474,16 @@
         <v>359</v>
       </c>
       <c r="B360">
-        <v>5951.992161453021</v>
+        <v>5951.99216145302</v>
       </c>
       <c r="C360">
         <v>6942.380472376632</v>
       </c>
       <c r="D360">
-        <v>8086.270645292873</v>
+        <v>8086.270645292874</v>
       </c>
       <c r="E360">
-        <v>7904.841568241269</v>
+        <v>7904.841568241267</v>
       </c>
     </row>
     <row r="361" spans="1:5">
@@ -6491,16 +6491,16 @@
         <v>360</v>
       </c>
       <c r="B361">
-        <v>24929.09316117621</v>
+        <v>24929.09316117622</v>
       </c>
       <c r="C361">
-        <v>25800.47453434538</v>
+        <v>25800.47453434537</v>
       </c>
       <c r="D361">
         <v>29226.25932583296</v>
       </c>
       <c r="E361">
-        <v>35581.54503985546</v>
+        <v>35581.54503985544</v>
       </c>
     </row>
     <row r="362" spans="1:5">
@@ -6508,7 +6508,7 @@
         <v>361</v>
       </c>
       <c r="B362">
-        <v>14625.97461530246</v>
+        <v>14625.97461530247</v>
       </c>
       <c r="C362">
         <v>14342.30384647274</v>
@@ -6517,7 +6517,7 @@
         <v>14680.83717942699</v>
       </c>
       <c r="E362">
-        <v>17173.02619312863</v>
+        <v>17173.02619312864</v>
       </c>
     </row>
     <row r="363" spans="1:5">
@@ -6542,16 +6542,16 @@
         <v>363</v>
       </c>
       <c r="B364">
-        <v>22349.81616733016</v>
+        <v>22349.81616733015</v>
       </c>
       <c r="C364">
-        <v>23456.4586580122</v>
+        <v>23456.45865801219</v>
       </c>
       <c r="D364">
-        <v>27069.7048554792</v>
+        <v>27069.70485547921</v>
       </c>
       <c r="E364">
-        <v>33966.75084783321</v>
+        <v>33966.75084783322</v>
       </c>
     </row>
     <row r="365" spans="1:5">
@@ -6559,16 +6559,16 @@
         <v>364</v>
       </c>
       <c r="B365">
-        <v>22349.81616733016</v>
+        <v>22349.81616733015</v>
       </c>
       <c r="C365">
-        <v>23456.4586580122</v>
+        <v>23456.45865801219</v>
       </c>
       <c r="D365">
-        <v>27069.7048554792</v>
+        <v>27069.70485547921</v>
       </c>
       <c r="E365">
-        <v>33966.75084783321</v>
+        <v>33966.75084783322</v>
       </c>
     </row>
     <row r="366" spans="1:5">
@@ -6576,7 +6576,7 @@
         <v>365</v>
       </c>
       <c r="B366">
-        <v>15030.41747778919</v>
+        <v>15030.4174777892</v>
       </c>
       <c r="C366">
         <v>16071.64475884028</v>
@@ -6593,7 +6593,7 @@
         <v>366</v>
       </c>
       <c r="B367">
-        <v>15030.41747778919</v>
+        <v>15030.4174777892</v>
       </c>
       <c r="C367">
         <v>16071.64475884028</v>
@@ -6616,7 +6616,7 @@
         <v>19255.30797693507</v>
       </c>
       <c r="D368">
-        <v>22580.03665685815</v>
+        <v>22580.03665685816</v>
       </c>
       <c r="E368">
         <v>28533.72538709017</v>
@@ -6627,7 +6627,7 @@
         <v>368</v>
       </c>
       <c r="B369">
-        <v>15030.41747778919</v>
+        <v>15030.4174777892</v>
       </c>
       <c r="C369">
         <v>16071.64475884028</v>
@@ -6644,16 +6644,16 @@
         <v>369</v>
       </c>
       <c r="B370">
-        <v>9571.628322012415</v>
+        <v>9571.628322012411</v>
       </c>
       <c r="C370">
-        <v>9525.284398947219</v>
+        <v>9525.284398947217</v>
       </c>
       <c r="D370">
         <v>9917.650919896385</v>
       </c>
       <c r="E370">
-        <v>11697.14405138676</v>
+        <v>11697.14405138675</v>
       </c>
     </row>
     <row r="371" spans="1:5">
@@ -6661,16 +6661,16 @@
         <v>370</v>
       </c>
       <c r="B371">
-        <v>9571.628322012415</v>
+        <v>9571.628322012411</v>
       </c>
       <c r="C371">
-        <v>9525.284398947219</v>
+        <v>9525.284398947217</v>
       </c>
       <c r="D371">
         <v>9917.650919896385</v>
       </c>
       <c r="E371">
-        <v>11697.14405138676</v>
+        <v>11697.14405138675</v>
       </c>
     </row>
     <row r="372" spans="1:5">
@@ -6678,16 +6678,16 @@
         <v>371</v>
       </c>
       <c r="B372">
-        <v>9571.628322012415</v>
+        <v>9571.628322012411</v>
       </c>
       <c r="C372">
-        <v>9525.284398947219</v>
+        <v>9525.284398947217</v>
       </c>
       <c r="D372">
         <v>9917.650919896385</v>
       </c>
       <c r="E372">
-        <v>11697.14405138676</v>
+        <v>11697.14405138675</v>
       </c>
     </row>
     <row r="373" spans="1:5">
@@ -6701,7 +6701,7 @@
         <v>28079.23937973949</v>
       </c>
       <c r="D373">
-        <v>31166.10128531649</v>
+        <v>31166.1012853165</v>
       </c>
       <c r="E373">
         <v>35163.57022217134</v>
@@ -6715,13 +6715,13 @@
         <v>20274.99127297721</v>
       </c>
       <c r="C374">
-        <v>22506.25413863846</v>
+        <v>22506.25413863845</v>
       </c>
       <c r="D374">
         <v>24860.48675610657</v>
       </c>
       <c r="E374">
-        <v>28584.12557810123</v>
+        <v>28584.12557810122</v>
       </c>
     </row>
     <row r="375" spans="1:5">
@@ -6735,7 +6735,7 @@
         <v>28079.23937973949</v>
       </c>
       <c r="D375">
-        <v>31166.10128531649</v>
+        <v>31166.1012853165</v>
       </c>
       <c r="E375">
         <v>35163.57022217134</v>
@@ -6752,10 +6752,10 @@
         <v>21998.93724423125</v>
       </c>
       <c r="D376">
-        <v>24444.74737790102</v>
+        <v>24444.74737790101</v>
       </c>
       <c r="E376">
-        <v>27649.21617657952</v>
+        <v>27649.21617657953</v>
       </c>
     </row>
     <row r="377" spans="1:5">
@@ -6769,10 +6769,10 @@
         <v>21998.93724423125</v>
       </c>
       <c r="D377">
-        <v>24444.74737790102</v>
+        <v>24444.74737790101</v>
       </c>
       <c r="E377">
-        <v>27649.21617657952</v>
+        <v>27649.21617657953</v>
       </c>
     </row>
     <row r="378" spans="1:5">
@@ -6851,13 +6851,13 @@
         <v>27539.21699990076</v>
       </c>
       <c r="C382">
-        <v>30450.09295630715</v>
+        <v>30450.09295630714</v>
       </c>
       <c r="D382">
         <v>31348.95938896361</v>
       </c>
       <c r="E382">
-        <v>32683.90661600506</v>
+        <v>32683.90661600508</v>
       </c>
     </row>
     <row r="383" spans="1:5">
@@ -6865,13 +6865,13 @@
         <v>382</v>
       </c>
       <c r="B383">
-        <v>26294.3154277524</v>
+        <v>26294.31542775239</v>
       </c>
       <c r="C383">
-        <v>28366.55323004564</v>
+        <v>28366.55323004563</v>
       </c>
       <c r="D383">
-        <v>30220.17338351208</v>
+        <v>30220.17338351209</v>
       </c>
       <c r="E383">
         <v>34652.57508645776</v>
@@ -6882,16 +6882,16 @@
         <v>383</v>
       </c>
       <c r="B384">
-        <v>24912.28551011663</v>
+        <v>24912.28551011664</v>
       </c>
       <c r="C384">
-        <v>27313.19360915158</v>
+        <v>27313.19360915157</v>
       </c>
       <c r="D384">
         <v>30111.71204088449</v>
       </c>
       <c r="E384">
-        <v>34865.73376075246</v>
+        <v>34865.73376075247</v>
       </c>
     </row>
     <row r="385" spans="1:5">
@@ -6905,10 +6905,10 @@
         <v>37168.73292381761</v>
       </c>
       <c r="D385">
-        <v>39119.42882483241</v>
+        <v>39119.4288248324</v>
       </c>
       <c r="E385">
-        <v>43998.29915459896</v>
+        <v>43998.29915459894</v>
       </c>
     </row>
     <row r="386" spans="1:5">
@@ -6919,13 +6919,13 @@
         <v>16723.66426146858</v>
       </c>
       <c r="C386">
-        <v>17402.99385819665</v>
+        <v>17402.99385819664</v>
       </c>
       <c r="D386">
         <v>17605.16551517267</v>
       </c>
       <c r="E386">
-        <v>18806.48125105538</v>
+        <v>18806.48125105539</v>
       </c>
     </row>
     <row r="387" spans="1:5">
@@ -6936,13 +6936,13 @@
         <v>16723.66426146858</v>
       </c>
       <c r="C387">
-        <v>17402.99385819665</v>
+        <v>17402.99385819664</v>
       </c>
       <c r="D387">
         <v>17605.16551517267</v>
       </c>
       <c r="E387">
-        <v>18806.48125105538</v>
+        <v>18806.48125105539</v>
       </c>
     </row>
     <row r="388" spans="1:5">
@@ -6953,10 +6953,10 @@
         <v>5782.285722140859</v>
       </c>
       <c r="C388">
-        <v>6510.294243791331</v>
+        <v>6510.294243791332</v>
       </c>
       <c r="D388">
-        <v>8128.30111487572</v>
+        <v>8128.301114875721</v>
       </c>
       <c r="E388">
         <v>10980.72734383369</v>
@@ -6970,13 +6970,13 @@
         <v>4438.649102234075</v>
       </c>
       <c r="C389">
-        <v>4846.421977406562</v>
+        <v>4846.421977406564</v>
       </c>
       <c r="D389">
         <v>5343.049381036455</v>
       </c>
       <c r="E389">
-        <v>6208.776041843319</v>
+        <v>6208.77604184332</v>
       </c>
     </row>
     <row r="390" spans="1:5">
@@ -6987,13 +6987,13 @@
         <v>4438.649102234075</v>
       </c>
       <c r="C390">
-        <v>4846.421977406562</v>
+        <v>4846.421977406564</v>
       </c>
       <c r="D390">
         <v>5343.049381036455</v>
       </c>
       <c r="E390">
-        <v>6208.776041843319</v>
+        <v>6208.77604184332</v>
       </c>
     </row>
     <row r="391" spans="1:5">
@@ -7004,10 +7004,10 @@
         <v>5782.285722140859</v>
       </c>
       <c r="C391">
-        <v>6510.294243791331</v>
+        <v>6510.294243791332</v>
       </c>
       <c r="D391">
-        <v>8128.30111487572</v>
+        <v>8128.301114875721</v>
       </c>
       <c r="E391">
         <v>10980.72734383369</v>
@@ -7021,13 +7021,13 @@
         <v>4438.649102234075</v>
       </c>
       <c r="C392">
-        <v>4846.421977406562</v>
+        <v>4846.421977406564</v>
       </c>
       <c r="D392">
         <v>5343.049381036455</v>
       </c>
       <c r="E392">
-        <v>6208.776041843319</v>
+        <v>6208.77604184332</v>
       </c>
     </row>
     <row r="393" spans="1:5">
@@ -7038,13 +7038,13 @@
         <v>3623.627912413896</v>
       </c>
       <c r="C393">
-        <v>3882.149369324266</v>
+        <v>3882.149369324265</v>
       </c>
       <c r="D393">
-        <v>3963.573560575374</v>
+        <v>3963.573560575373</v>
       </c>
       <c r="E393">
-        <v>4118.627655649798</v>
+        <v>4118.6276556498</v>
       </c>
     </row>
     <row r="394" spans="1:5">
@@ -7055,13 +7055,13 @@
         <v>3623.627912413896</v>
       </c>
       <c r="C394">
-        <v>3882.149369324266</v>
+        <v>3882.149369324265</v>
       </c>
       <c r="D394">
-        <v>3963.573560575374</v>
+        <v>3963.573560575373</v>
       </c>
       <c r="E394">
-        <v>4118.627655649798</v>
+        <v>4118.6276556498</v>
       </c>
     </row>
     <row r="395" spans="1:5">
@@ -7103,16 +7103,16 @@
         <v>396</v>
       </c>
       <c r="B397">
-        <v>5475.04248277386</v>
+        <v>5475.042482773862</v>
       </c>
       <c r="C397">
-        <v>5800.972622382666</v>
+        <v>5800.972622382665</v>
       </c>
       <c r="D397">
-        <v>5735.137653217834</v>
+        <v>5735.137653217832</v>
       </c>
       <c r="E397">
-        <v>5684.81491536064</v>
+        <v>5684.814915360639</v>
       </c>
     </row>
     <row r="398" spans="1:5">
@@ -7120,16 +7120,16 @@
         <v>397</v>
       </c>
       <c r="B398">
-        <v>5475.04248277386</v>
+        <v>5475.042482773862</v>
       </c>
       <c r="C398">
-        <v>5800.972622382666</v>
+        <v>5800.972622382665</v>
       </c>
       <c r="D398">
-        <v>5735.137653217834</v>
+        <v>5735.137653217832</v>
       </c>
       <c r="E398">
-        <v>5684.81491536064</v>
+        <v>5684.814915360639</v>
       </c>
     </row>
     <row r="399" spans="1:5">
@@ -7143,10 +7143,10 @@
         <v>4889.588998589087</v>
       </c>
       <c r="D399">
-        <v>5737.344078340096</v>
+        <v>5737.344078340097</v>
       </c>
       <c r="E399">
-        <v>7678.571344963727</v>
+        <v>7678.57134496373</v>
       </c>
     </row>
     <row r="400" spans="1:5">
@@ -7154,16 +7154,16 @@
         <v>399</v>
       </c>
       <c r="B400">
-        <v>4180.325063191605</v>
+        <v>4180.325063191604</v>
       </c>
       <c r="C400">
         <v>4386.146502554951</v>
       </c>
       <c r="D400">
-        <v>5050.672956874483</v>
+        <v>5050.672956874482</v>
       </c>
       <c r="E400">
-        <v>6626.025459405399</v>
+        <v>6626.025459405397</v>
       </c>
     </row>
     <row r="401" spans="1:5">
@@ -7177,10 +7177,10 @@
         <v>4889.588998589087</v>
       </c>
       <c r="D401">
-        <v>5737.344078340096</v>
+        <v>5737.344078340097</v>
       </c>
       <c r="E401">
-        <v>7678.571344963727</v>
+        <v>7678.57134496373</v>
       </c>
     </row>
     <row r="402" spans="1:5">
@@ -7188,16 +7188,16 @@
         <v>401</v>
       </c>
       <c r="B402">
-        <v>4437.790641870349</v>
+        <v>4437.79064187035</v>
       </c>
       <c r="C402">
-        <v>4432.569410764563</v>
+        <v>4432.569410764562</v>
       </c>
       <c r="D402">
         <v>4464.228544241932</v>
       </c>
       <c r="E402">
-        <v>5153.272967634339</v>
+        <v>5153.27296763434</v>
       </c>
     </row>
     <row r="403" spans="1:5">
@@ -7205,16 +7205,16 @@
         <v>402</v>
       </c>
       <c r="B403">
-        <v>4180.325063191605</v>
+        <v>4180.325063191604</v>
       </c>
       <c r="C403">
         <v>4386.146502554951</v>
       </c>
       <c r="D403">
-        <v>5050.672956874483</v>
+        <v>5050.672956874482</v>
       </c>
       <c r="E403">
-        <v>6626.025459405399</v>
+        <v>6626.025459405397</v>
       </c>
     </row>
     <row r="404" spans="1:5">
@@ -7273,16 +7273,16 @@
         <v>406</v>
       </c>
       <c r="B407">
-        <v>2941.427549647286</v>
+        <v>2941.427549647287</v>
       </c>
       <c r="C407">
-        <v>3041.581128574392</v>
+        <v>3041.581128574393</v>
       </c>
       <c r="D407">
-        <v>3312.608845329185</v>
+        <v>3312.608845329187</v>
       </c>
       <c r="E407">
-        <v>4233.813577143004</v>
+        <v>4233.813577143005</v>
       </c>
     </row>
     <row r="408" spans="1:5">
@@ -7290,16 +7290,16 @@
         <v>407</v>
       </c>
       <c r="B408">
-        <v>2941.427549647286</v>
+        <v>2941.427549647287</v>
       </c>
       <c r="C408">
-        <v>3041.581128574392</v>
+        <v>3041.581128574393</v>
       </c>
       <c r="D408">
-        <v>3312.608845329185</v>
+        <v>3312.608845329187</v>
       </c>
       <c r="E408">
-        <v>4233.813577143004</v>
+        <v>4233.813577143005</v>
       </c>
     </row>
     <row r="409" spans="1:5">
@@ -7307,16 +7307,16 @@
         <v>408</v>
       </c>
       <c r="B409">
-        <v>2941.427549647286</v>
+        <v>2941.427549647287</v>
       </c>
       <c r="C409">
-        <v>3041.581128574392</v>
+        <v>3041.581128574393</v>
       </c>
       <c r="D409">
-        <v>3312.608845329185</v>
+        <v>3312.608845329187</v>
       </c>
       <c r="E409">
-        <v>4233.813577143004</v>
+        <v>4233.813577143005</v>
       </c>
     </row>
     <row r="410" spans="1:5">
@@ -7324,7 +7324,7 @@
         <v>409</v>
       </c>
       <c r="B410">
-        <v>8102.822096920749</v>
+        <v>8102.82209692075</v>
       </c>
       <c r="C410">
         <v>9347.508073173973</v>
@@ -7341,7 +7341,7 @@
         <v>410</v>
       </c>
       <c r="B411">
-        <v>6339.224233713147</v>
+        <v>6339.224233713145</v>
       </c>
       <c r="C411">
         <v>7041.886532901053</v>
@@ -7358,7 +7358,7 @@
         <v>411</v>
       </c>
       <c r="B412">
-        <v>6339.224233713147</v>
+        <v>6339.224233713145</v>
       </c>
       <c r="C412">
         <v>7041.886532901053</v>
@@ -7375,13 +7375,13 @@
         <v>412</v>
       </c>
       <c r="B413">
-        <v>5079.902388056241</v>
+        <v>5079.90238805624</v>
       </c>
       <c r="C413">
-        <v>5123.685018341904</v>
+        <v>5123.685018341903</v>
       </c>
       <c r="D413">
-        <v>5445.411320505115</v>
+        <v>5445.411320505114</v>
       </c>
       <c r="E413">
         <v>6262.470744087066</v>
@@ -7392,7 +7392,7 @@
         <v>413</v>
       </c>
       <c r="B414">
-        <v>8102.822096920749</v>
+        <v>8102.82209692075</v>
       </c>
       <c r="C414">
         <v>9347.508073173973</v>
@@ -7412,13 +7412,13 @@
         <v>8222.720742282287</v>
       </c>
       <c r="C415">
-        <v>9462.288438854768</v>
+        <v>9462.288438854766</v>
       </c>
       <c r="D415">
-        <v>12669.53015919502</v>
+        <v>12669.53015919501</v>
       </c>
       <c r="E415">
-        <v>17907.21820169942</v>
+        <v>17907.21820169941</v>
       </c>
     </row>
     <row r="416" spans="1:5">
@@ -7429,13 +7429,13 @@
         <v>8222.720742282287</v>
       </c>
       <c r="C416">
-        <v>9462.288438854768</v>
+        <v>9462.288438854766</v>
       </c>
       <c r="D416">
-        <v>12669.53015919502</v>
+        <v>12669.53015919501</v>
       </c>
       <c r="E416">
-        <v>17907.21820169942</v>
+        <v>17907.21820169941</v>
       </c>
     </row>
     <row r="417" spans="1:5">
@@ -7446,13 +7446,13 @@
         <v>5339.852950196583</v>
       </c>
       <c r="C417">
-        <v>5337.961633071569</v>
+        <v>5337.961633071571</v>
       </c>
       <c r="D417">
         <v>5556.845432108316</v>
       </c>
       <c r="E417">
-        <v>6933.104334418249</v>
+        <v>6933.104334418251</v>
       </c>
     </row>
     <row r="418" spans="1:5">
@@ -7463,13 +7463,13 @@
         <v>5339.852950196583</v>
       </c>
       <c r="C418">
-        <v>5337.961633071569</v>
+        <v>5337.961633071571</v>
       </c>
       <c r="D418">
         <v>5556.845432108316</v>
       </c>
       <c r="E418">
-        <v>6933.104334418249</v>
+        <v>6933.104334418251</v>
       </c>
     </row>
     <row r="419" spans="1:5">
@@ -7486,7 +7486,7 @@
         <v>13396.88690142672</v>
       </c>
       <c r="E419">
-        <v>17702.30234858835</v>
+        <v>17702.30234858834</v>
       </c>
     </row>
     <row r="420" spans="1:5">
@@ -7503,7 +7503,7 @@
         <v>13396.88690142672</v>
       </c>
       <c r="E420">
-        <v>17702.30234858835</v>
+        <v>17702.30234858834</v>
       </c>
     </row>
     <row r="421" spans="1:5">
@@ -7520,7 +7520,7 @@
         <v>13396.88690142672</v>
       </c>
       <c r="E421">
-        <v>17702.30234858835</v>
+        <v>17702.30234858834</v>
       </c>
     </row>
     <row r="422" spans="1:5">
@@ -7537,7 +7537,7 @@
         <v>13396.88690142672</v>
       </c>
       <c r="E422">
-        <v>17702.30234858835</v>
+        <v>17702.30234858834</v>
       </c>
     </row>
     <row r="423" spans="1:5">
@@ -7554,7 +7554,7 @@
         <v>13396.88690142672</v>
       </c>
       <c r="E423">
-        <v>17702.30234858835</v>
+        <v>17702.30234858834</v>
       </c>
     </row>
     <row r="424" spans="1:5">
@@ -7571,7 +7571,7 @@
         <v>13396.88690142672</v>
       </c>
       <c r="E424">
-        <v>17702.30234858835</v>
+        <v>17702.30234858834</v>
       </c>
     </row>
     <row r="425" spans="1:5">
@@ -7588,7 +7588,7 @@
         <v>13396.88690142672</v>
       </c>
       <c r="E425">
-        <v>17702.30234858835</v>
+        <v>17702.30234858834</v>
       </c>
     </row>
     <row r="426" spans="1:5">
@@ -7605,7 +7605,7 @@
         <v>13396.88690142672</v>
       </c>
       <c r="E426">
-        <v>17702.30234858835</v>
+        <v>17702.30234858834</v>
       </c>
     </row>
     <row r="427" spans="1:5">
@@ -7622,7 +7622,7 @@
         <v>13396.88690142672</v>
       </c>
       <c r="E427">
-        <v>17702.30234858835</v>
+        <v>17702.30234858834</v>
       </c>
     </row>
     <row r="428" spans="1:5">
@@ -7639,7 +7639,7 @@
         <v>13396.88690142672</v>
       </c>
       <c r="E428">
-        <v>17702.30234858835</v>
+        <v>17702.30234858834</v>
       </c>
     </row>
     <row r="429" spans="1:5">
@@ -7656,7 +7656,7 @@
         <v>13396.88690142672</v>
       </c>
       <c r="E429">
-        <v>17702.30234858835</v>
+        <v>17702.30234858834</v>
       </c>
     </row>
     <row r="430" spans="1:5">
@@ -7673,7 +7673,7 @@
         <v>13396.88690142672</v>
       </c>
       <c r="E430">
-        <v>17702.30234858835</v>
+        <v>17702.30234858834</v>
       </c>
     </row>
     <row r="431" spans="1:5">
@@ -7690,7 +7690,7 @@
         <v>13396.88690142672</v>
       </c>
       <c r="E431">
-        <v>17702.30234858835</v>
+        <v>17702.30234858834</v>
       </c>
     </row>
     <row r="432" spans="1:5">
@@ -7707,7 +7707,7 @@
         <v>13396.88690142672</v>
       </c>
       <c r="E432">
-        <v>17702.30234858835</v>
+        <v>17702.30234858834</v>
       </c>
     </row>
     <row r="433" spans="1:5">
@@ -7724,7 +7724,7 @@
         <v>13396.88690142672</v>
       </c>
       <c r="E433">
-        <v>17702.30234858835</v>
+        <v>17702.30234858834</v>
       </c>
     </row>
     <row r="434" spans="1:5">
@@ -7732,10 +7732,10 @@
         <v>433</v>
       </c>
       <c r="B434">
-        <v>8164.18799403377</v>
+        <v>8164.187994033769</v>
       </c>
       <c r="C434">
-        <v>8659.722265464679</v>
+        <v>8659.722265464681</v>
       </c>
       <c r="D434">
         <v>10068.94022897374</v>
@@ -7758,7 +7758,7 @@
         <v>13396.88690142672</v>
       </c>
       <c r="E435">
-        <v>17702.30234858835</v>
+        <v>17702.30234858834</v>
       </c>
     </row>
     <row r="436" spans="1:5">
@@ -7766,13 +7766,13 @@
         <v>435</v>
       </c>
       <c r="B436">
-        <v>5453.543917194637</v>
+        <v>5453.543917194636</v>
       </c>
       <c r="C436">
-        <v>5532.863902685139</v>
+        <v>5532.863902685136</v>
       </c>
       <c r="D436">
-        <v>5209.745830134829</v>
+        <v>5209.745830134827</v>
       </c>
       <c r="E436">
         <v>5079.75277860125</v>
@@ -7786,13 +7786,13 @@
         <v>5136.745005206448</v>
       </c>
       <c r="C437">
-        <v>5350.35288292425</v>
+        <v>5350.352882924248</v>
       </c>
       <c r="D437">
-        <v>5939.929022639404</v>
+        <v>5939.929022639405</v>
       </c>
       <c r="E437">
-        <v>7516.370126505149</v>
+        <v>7516.370126505147</v>
       </c>
     </row>
     <row r="438" spans="1:5">
@@ -7803,13 +7803,13 @@
         <v>5136.745005206448</v>
       </c>
       <c r="C438">
-        <v>5350.35288292425</v>
+        <v>5350.352882924248</v>
       </c>
       <c r="D438">
-        <v>5939.929022639404</v>
+        <v>5939.929022639405</v>
       </c>
       <c r="E438">
-        <v>7516.370126505149</v>
+        <v>7516.370126505147</v>
       </c>
     </row>
     <row r="439" spans="1:5">
@@ -7820,13 +7820,13 @@
         <v>5136.745005206448</v>
       </c>
       <c r="C439">
-        <v>5350.35288292425</v>
+        <v>5350.352882924248</v>
       </c>
       <c r="D439">
-        <v>5939.929022639404</v>
+        <v>5939.929022639405</v>
       </c>
       <c r="E439">
-        <v>7516.370126505149</v>
+        <v>7516.370126505147</v>
       </c>
     </row>
     <row r="440" spans="1:5">
@@ -7837,13 +7837,13 @@
         <v>5136.745005206448</v>
       </c>
       <c r="C440">
-        <v>5350.35288292425</v>
+        <v>5350.352882924248</v>
       </c>
       <c r="D440">
-        <v>5939.929022639404</v>
+        <v>5939.929022639405</v>
       </c>
       <c r="E440">
-        <v>7516.370126505149</v>
+        <v>7516.370126505147</v>
       </c>
     </row>
     <row r="441" spans="1:5">
@@ -7854,13 +7854,13 @@
         <v>5136.745005206448</v>
       </c>
       <c r="C441">
-        <v>5350.35288292425</v>
+        <v>5350.352882924248</v>
       </c>
       <c r="D441">
-        <v>5939.929022639404</v>
+        <v>5939.929022639405</v>
       </c>
       <c r="E441">
-        <v>7516.370126505149</v>
+        <v>7516.370126505147</v>
       </c>
     </row>
     <row r="442" spans="1:5">
@@ -7871,13 +7871,13 @@
         <v>5136.745005206448</v>
       </c>
       <c r="C442">
-        <v>5350.35288292425</v>
+        <v>5350.352882924248</v>
       </c>
       <c r="D442">
-        <v>5939.929022639404</v>
+        <v>5939.929022639405</v>
       </c>
       <c r="E442">
-        <v>7516.370126505149</v>
+        <v>7516.370126505147</v>
       </c>
     </row>
     <row r="443" spans="1:5">
@@ -7888,13 +7888,13 @@
         <v>5136.745005206448</v>
       </c>
       <c r="C443">
-        <v>5350.35288292425</v>
+        <v>5350.352882924248</v>
       </c>
       <c r="D443">
-        <v>5939.929022639404</v>
+        <v>5939.929022639405</v>
       </c>
       <c r="E443">
-        <v>7516.370126505149</v>
+        <v>7516.370126505147</v>
       </c>
     </row>
     <row r="444" spans="1:5">
@@ -7905,13 +7905,13 @@
         <v>5136.745005206448</v>
       </c>
       <c r="C444">
-        <v>5350.35288292425</v>
+        <v>5350.352882924248</v>
       </c>
       <c r="D444">
-        <v>5939.929022639404</v>
+        <v>5939.929022639405</v>
       </c>
       <c r="E444">
-        <v>7516.370126505149</v>
+        <v>7516.370126505147</v>
       </c>
     </row>
     <row r="445" spans="1:5">
@@ -7922,13 +7922,13 @@
         <v>5136.745005206448</v>
       </c>
       <c r="C445">
-        <v>5350.35288292425</v>
+        <v>5350.352882924248</v>
       </c>
       <c r="D445">
-        <v>5939.929022639404</v>
+        <v>5939.929022639405</v>
       </c>
       <c r="E445">
-        <v>7516.370126505149</v>
+        <v>7516.370126505147</v>
       </c>
     </row>
     <row r="446" spans="1:5">
@@ -7939,13 +7939,13 @@
         <v>5136.745005206448</v>
       </c>
       <c r="C446">
-        <v>5350.35288292425</v>
+        <v>5350.352882924248</v>
       </c>
       <c r="D446">
-        <v>5939.929022639404</v>
+        <v>5939.929022639405</v>
       </c>
       <c r="E446">
-        <v>7516.370126505149</v>
+        <v>7516.370126505147</v>
       </c>
     </row>
     <row r="447" spans="1:5">
@@ -7956,13 +7956,13 @@
         <v>5136.745005206448</v>
       </c>
       <c r="C447">
-        <v>5350.35288292425</v>
+        <v>5350.352882924248</v>
       </c>
       <c r="D447">
-        <v>5939.929022639404</v>
+        <v>5939.929022639405</v>
       </c>
       <c r="E447">
-        <v>7516.370126505149</v>
+        <v>7516.370126505147</v>
       </c>
     </row>
     <row r="448" spans="1:5">
@@ -7979,7 +7979,7 @@
         <v>20853.40047616768</v>
       </c>
       <c r="E448">
-        <v>25746.90262099722</v>
+        <v>25746.90262099721</v>
       </c>
     </row>
     <row r="449" spans="1:5">
@@ -7996,7 +7996,7 @@
         <v>20853.40047616768</v>
       </c>
       <c r="E449">
-        <v>25746.90262099722</v>
+        <v>25746.90262099721</v>
       </c>
     </row>
     <row r="450" spans="1:5">
@@ -8013,7 +8013,7 @@
         <v>20853.40047616768</v>
       </c>
       <c r="E450">
-        <v>25746.90262099722</v>
+        <v>25746.90262099721</v>
       </c>
     </row>
     <row r="451" spans="1:5">
@@ -8030,7 +8030,7 @@
         <v>20853.40047616768</v>
       </c>
       <c r="E451">
-        <v>25746.90262099722</v>
+        <v>25746.90262099721</v>
       </c>
     </row>
     <row r="452" spans="1:5">
@@ -8047,7 +8047,7 @@
         <v>20853.40047616768</v>
       </c>
       <c r="E452">
-        <v>25746.90262099722</v>
+        <v>25746.90262099721</v>
       </c>
     </row>
     <row r="453" spans="1:5">
@@ -8064,7 +8064,7 @@
         <v>20853.40047616768</v>
       </c>
       <c r="E453">
-        <v>25746.90262099722</v>
+        <v>25746.90262099721</v>
       </c>
     </row>
     <row r="454" spans="1:5">
@@ -8081,7 +8081,7 @@
         <v>17263.95087085031</v>
       </c>
       <c r="E454">
-        <v>22822.24206144194</v>
+        <v>22822.24206144193</v>
       </c>
     </row>
     <row r="455" spans="1:5">
@@ -8098,7 +8098,7 @@
         <v>17263.95087085031</v>
       </c>
       <c r="E455">
-        <v>22822.24206144194</v>
+        <v>22822.24206144193</v>
       </c>
     </row>
     <row r="456" spans="1:5">
@@ -8115,7 +8115,7 @@
         <v>17263.95087085031</v>
       </c>
       <c r="E456">
-        <v>22822.24206144194</v>
+        <v>22822.24206144193</v>
       </c>
     </row>
     <row r="457" spans="1:5">
@@ -8132,7 +8132,7 @@
         <v>17263.95087085031</v>
       </c>
       <c r="E457">
-        <v>22822.24206144194</v>
+        <v>22822.24206144193</v>
       </c>
     </row>
     <row r="458" spans="1:5">
@@ -8149,7 +8149,7 @@
         <v>17263.95087085031</v>
       </c>
       <c r="E458">
-        <v>22822.24206144194</v>
+        <v>22822.24206144193</v>
       </c>
     </row>
     <row r="459" spans="1:5">
@@ -8166,7 +8166,7 @@
         <v>17263.95087085031</v>
       </c>
       <c r="E459">
-        <v>22822.24206144194</v>
+        <v>22822.24206144193</v>
       </c>
     </row>
     <row r="460" spans="1:5">
@@ -8183,7 +8183,7 @@
         <v>17263.95087085031</v>
       </c>
       <c r="E460">
-        <v>22822.24206144194</v>
+        <v>22822.24206144193</v>
       </c>
     </row>
     <row r="461" spans="1:5">
@@ -8200,7 +8200,7 @@
         <v>17263.95087085031</v>
       </c>
       <c r="E461">
-        <v>22822.24206144194</v>
+        <v>22822.24206144193</v>
       </c>
     </row>
     <row r="462" spans="1:5">
@@ -8217,7 +8217,7 @@
         <v>17263.95087085031</v>
       </c>
       <c r="E462">
-        <v>22822.24206144194</v>
+        <v>22822.24206144193</v>
       </c>
     </row>
     <row r="463" spans="1:5">
@@ -8234,7 +8234,7 @@
         <v>13396.88690142672</v>
       </c>
       <c r="E463">
-        <v>17702.30234858835</v>
+        <v>17702.30234858834</v>
       </c>
     </row>
     <row r="464" spans="1:5">
@@ -8251,7 +8251,7 @@
         <v>13396.88690142672</v>
       </c>
       <c r="E464">
-        <v>17702.30234858835</v>
+        <v>17702.30234858834</v>
       </c>
     </row>
     <row r="465" spans="1:5">
@@ -8259,10 +8259,10 @@
         <v>464</v>
       </c>
       <c r="B465">
-        <v>8164.18799403377</v>
+        <v>8164.187994033769</v>
       </c>
       <c r="C465">
-        <v>8659.722265464679</v>
+        <v>8659.722265464681</v>
       </c>
       <c r="D465">
         <v>10068.94022897374</v>
@@ -8276,10 +8276,10 @@
         <v>465</v>
       </c>
       <c r="B466">
-        <v>8164.18799403377</v>
+        <v>8164.187994033769</v>
       </c>
       <c r="C466">
-        <v>8659.722265464679</v>
+        <v>8659.722265464681</v>
       </c>
       <c r="D466">
         <v>10068.94022897374</v>
@@ -8302,7 +8302,7 @@
         <v>13396.88690142672</v>
       </c>
       <c r="E467">
-        <v>17702.30234858835</v>
+        <v>17702.30234858834</v>
       </c>
     </row>
     <row r="468" spans="1:5">
@@ -8319,7 +8319,7 @@
         <v>20853.40047616768</v>
       </c>
       <c r="E468">
-        <v>25746.90262099722</v>
+        <v>25746.90262099721</v>
       </c>
     </row>
     <row r="469" spans="1:5">
@@ -8336,7 +8336,7 @@
         <v>20853.40047616768</v>
       </c>
       <c r="E469">
-        <v>25746.90262099722</v>
+        <v>25746.90262099721</v>
       </c>
     </row>
     <row r="470" spans="1:5">
@@ -8353,7 +8353,7 @@
         <v>20853.40047616768</v>
       </c>
       <c r="E470">
-        <v>25746.90262099722</v>
+        <v>25746.90262099721</v>
       </c>
     </row>
     <row r="471" spans="1:5">
@@ -8370,7 +8370,7 @@
         <v>13396.88690142672</v>
       </c>
       <c r="E471">
-        <v>17702.30234858835</v>
+        <v>17702.30234858834</v>
       </c>
     </row>
     <row r="472" spans="1:5">
@@ -8387,7 +8387,7 @@
         <v>17263.95087085031</v>
       </c>
       <c r="E472">
-        <v>22822.24206144194</v>
+        <v>22822.24206144193</v>
       </c>
     </row>
     <row r="473" spans="1:5">
@@ -8395,10 +8395,10 @@
         <v>472</v>
       </c>
       <c r="B473">
-        <v>8164.18799403377</v>
+        <v>8164.187994033769</v>
       </c>
       <c r="C473">
-        <v>8659.722265464679</v>
+        <v>8659.722265464681</v>
       </c>
       <c r="D473">
         <v>10068.94022897374</v>
@@ -8412,10 +8412,10 @@
         <v>473</v>
       </c>
       <c r="B474">
-        <v>8164.18799403377</v>
+        <v>8164.187994033769</v>
       </c>
       <c r="C474">
-        <v>8659.722265464679</v>
+        <v>8659.722265464681</v>
       </c>
       <c r="D474">
         <v>10068.94022897374</v>
@@ -8429,13 +8429,13 @@
         <v>474</v>
       </c>
       <c r="B475">
-        <v>5453.543917194637</v>
+        <v>5453.543917194636</v>
       </c>
       <c r="C475">
-        <v>5532.863902685139</v>
+        <v>5532.863902685136</v>
       </c>
       <c r="D475">
-        <v>5209.745830134829</v>
+        <v>5209.745830134827</v>
       </c>
       <c r="E475">
         <v>5079.75277860125</v>
@@ -8449,10 +8449,10 @@
         <v>6771.656871705271</v>
       </c>
       <c r="C476">
-        <v>6967.631228220106</v>
+        <v>6967.631228220107</v>
       </c>
       <c r="D476">
-        <v>7868.859685842418</v>
+        <v>7868.859685842419</v>
       </c>
       <c r="E476">
         <v>10064.69019205698</v>
@@ -8466,10 +8466,10 @@
         <v>6771.656871705271</v>
       </c>
       <c r="C477">
-        <v>6967.631228220106</v>
+        <v>6967.631228220107</v>
       </c>
       <c r="D477">
-        <v>7868.859685842418</v>
+        <v>7868.859685842419</v>
       </c>
       <c r="E477">
         <v>10064.69019205698</v>
@@ -8480,7 +8480,7 @@
         <v>477</v>
       </c>
       <c r="B478">
-        <v>7804.20370624066</v>
+        <v>7804.203706240661</v>
       </c>
       <c r="C478">
         <v>8599.927713017749</v>
@@ -8489,7 +8489,7 @@
         <v>10417.35735416459</v>
       </c>
       <c r="E478">
-        <v>13666.77337252737</v>
+        <v>13666.77337252738</v>
       </c>
     </row>
     <row r="479" spans="1:5">
@@ -8500,10 +8500,10 @@
         <v>6828.307388294525</v>
       </c>
       <c r="C479">
-        <v>7642.695339155023</v>
+        <v>7642.695339155021</v>
       </c>
       <c r="D479">
-        <v>9414.909428216624</v>
+        <v>9414.909428216628</v>
       </c>
       <c r="E479">
         <v>12501.53253182592</v>
@@ -8514,7 +8514,7 @@
         <v>479</v>
       </c>
       <c r="B480">
-        <v>7804.20370624066</v>
+        <v>7804.203706240661</v>
       </c>
       <c r="C480">
         <v>8599.927713017749</v>
@@ -8523,7 +8523,7 @@
         <v>10417.35735416459</v>
       </c>
       <c r="E480">
-        <v>13666.77337252737</v>
+        <v>13666.77337252738</v>
       </c>
     </row>
     <row r="481" spans="1:5">
@@ -8531,7 +8531,7 @@
         <v>480</v>
       </c>
       <c r="B481">
-        <v>7804.20370624066</v>
+        <v>7804.203706240661</v>
       </c>
       <c r="C481">
         <v>8599.927713017749</v>
@@ -8540,7 +8540,7 @@
         <v>10417.35735416459</v>
       </c>
       <c r="E481">
-        <v>13666.77337252737</v>
+        <v>13666.77337252738</v>
       </c>
     </row>
     <row r="482" spans="1:5">
@@ -8548,7 +8548,7 @@
         <v>481</v>
       </c>
       <c r="B482">
-        <v>7804.20370624066</v>
+        <v>7804.203706240661</v>
       </c>
       <c r="C482">
         <v>8599.927713017749</v>
@@ -8557,7 +8557,7 @@
         <v>10417.35735416459</v>
       </c>
       <c r="E482">
-        <v>13666.77337252737</v>
+        <v>13666.77337252738</v>
       </c>
     </row>
     <row r="483" spans="1:5">
@@ -8565,7 +8565,7 @@
         <v>482</v>
       </c>
       <c r="B483">
-        <v>7804.20370624066</v>
+        <v>7804.203706240661</v>
       </c>
       <c r="C483">
         <v>8599.927713017749</v>
@@ -8574,7 +8574,7 @@
         <v>10417.35735416459</v>
       </c>
       <c r="E483">
-        <v>13666.77337252737</v>
+        <v>13666.77337252738</v>
       </c>
     </row>
     <row r="484" spans="1:5">
@@ -8582,7 +8582,7 @@
         <v>483</v>
       </c>
       <c r="B484">
-        <v>7804.20370624066</v>
+        <v>7804.203706240661</v>
       </c>
       <c r="C484">
         <v>8599.927713017749</v>
@@ -8591,7 +8591,7 @@
         <v>10417.35735416459</v>
       </c>
       <c r="E484">
-        <v>13666.77337252737</v>
+        <v>13666.77337252738</v>
       </c>
     </row>
     <row r="485" spans="1:5">
@@ -8599,7 +8599,7 @@
         <v>484</v>
       </c>
       <c r="B485">
-        <v>7804.20370624066</v>
+        <v>7804.203706240661</v>
       </c>
       <c r="C485">
         <v>8599.927713017749</v>
@@ -8608,7 +8608,7 @@
         <v>10417.35735416459</v>
       </c>
       <c r="E485">
-        <v>13666.77337252737</v>
+        <v>13666.77337252738</v>
       </c>
     </row>
     <row r="486" spans="1:5">
@@ -8616,7 +8616,7 @@
         <v>485</v>
       </c>
       <c r="B486">
-        <v>7485.090698077199</v>
+        <v>7485.090698077201</v>
       </c>
       <c r="C486">
         <v>8433.078700167531</v>
@@ -8633,13 +8633,13 @@
         <v>486</v>
       </c>
       <c r="B487">
-        <v>7318.57209561752</v>
+        <v>7318.572095617521</v>
       </c>
       <c r="C487">
-        <v>7939.381428299451</v>
+        <v>7939.38142829945</v>
       </c>
       <c r="D487">
-        <v>9157.948899437575</v>
+        <v>9157.94889943757</v>
       </c>
       <c r="E487">
         <v>11497.00460394785</v>
@@ -8650,7 +8650,7 @@
         <v>487</v>
       </c>
       <c r="B488">
-        <v>6722.412477479111</v>
+        <v>6722.41247747911</v>
       </c>
       <c r="C488">
         <v>7001.608816339402</v>
@@ -8659,7 +8659,7 @@
         <v>7033.294386362469</v>
       </c>
       <c r="E488">
-        <v>7634.546014410975</v>
+        <v>7634.546014410973</v>
       </c>
     </row>
     <row r="489" spans="1:5">
@@ -8667,7 +8667,7 @@
         <v>488</v>
       </c>
       <c r="B489">
-        <v>6722.412477479111</v>
+        <v>6722.41247747911</v>
       </c>
       <c r="C489">
         <v>7001.608816339402</v>
@@ -8676,7 +8676,7 @@
         <v>7033.294386362469</v>
       </c>
       <c r="E489">
-        <v>7634.546014410975</v>
+        <v>7634.546014410973</v>
       </c>
     </row>
     <row r="490" spans="1:5">
@@ -8693,7 +8693,7 @@
         <v>15367.03127373292</v>
       </c>
       <c r="E490">
-        <v>20867.87047449059</v>
+        <v>20867.87047449058</v>
       </c>
     </row>
     <row r="491" spans="1:5">
@@ -8710,7 +8710,7 @@
         <v>15367.03127373292</v>
       </c>
       <c r="E491">
-        <v>20867.87047449059</v>
+        <v>20867.87047449058</v>
       </c>
     </row>
     <row r="492" spans="1:5">
@@ -8727,7 +8727,7 @@
         <v>15367.03127373292</v>
       </c>
       <c r="E492">
-        <v>20867.87047449059</v>
+        <v>20867.87047449058</v>
       </c>
     </row>
     <row r="493" spans="1:5">
@@ -8744,7 +8744,7 @@
         <v>15367.03127373292</v>
       </c>
       <c r="E493">
-        <v>20867.87047449059</v>
+        <v>20867.87047449058</v>
       </c>
     </row>
     <row r="494" spans="1:5">
@@ -8761,7 +8761,7 @@
         <v>15367.03127373292</v>
       </c>
       <c r="E494">
-        <v>20867.87047449059</v>
+        <v>20867.87047449058</v>
       </c>
     </row>
     <row r="495" spans="1:5">
@@ -8769,16 +8769,16 @@
         <v>494</v>
       </c>
       <c r="B495">
-        <v>7226.986414036919</v>
+        <v>7226.98641403692</v>
       </c>
       <c r="C495">
-        <v>7497.348580982879</v>
+        <v>7497.348580982878</v>
       </c>
       <c r="D495">
-        <v>7332.591419851668</v>
+        <v>7332.59141985167</v>
       </c>
       <c r="E495">
-        <v>7475.192414314285</v>
+        <v>7475.192414314287</v>
       </c>
     </row>
     <row r="496" spans="1:5">
@@ -8786,7 +8786,7 @@
         <v>495</v>
       </c>
       <c r="B496">
-        <v>9768.416542034503</v>
+        <v>9768.4165420345</v>
       </c>
       <c r="C496">
         <v>10609.06381389215</v>
@@ -8803,16 +8803,16 @@
         <v>496</v>
       </c>
       <c r="B497">
-        <v>7226.986414036919</v>
+        <v>7226.98641403692</v>
       </c>
       <c r="C497">
-        <v>7497.348580982879</v>
+        <v>7497.348580982878</v>
       </c>
       <c r="D497">
-        <v>7332.591419851668</v>
+        <v>7332.59141985167</v>
       </c>
       <c r="E497">
-        <v>7475.192414314285</v>
+        <v>7475.192414314287</v>
       </c>
     </row>
     <row r="498" spans="1:5">
@@ -8820,7 +8820,7 @@
         <v>497</v>
       </c>
       <c r="B498">
-        <v>10843.96743863382</v>
+        <v>10843.96743863381</v>
       </c>
       <c r="C498">
         <v>10954.5656292953</v>
@@ -8829,7 +8829,7 @@
         <v>11325.16686204788</v>
       </c>
       <c r="E498">
-        <v>13237.65241325546</v>
+        <v>13237.65241325547</v>
       </c>
     </row>
     <row r="499" spans="1:5">
@@ -8837,7 +8837,7 @@
         <v>498</v>
       </c>
       <c r="B499">
-        <v>10843.96743863382</v>
+        <v>10843.96743863381</v>
       </c>
       <c r="C499">
         <v>10954.5656292953</v>
@@ -8846,7 +8846,7 @@
         <v>11325.16686204788</v>
       </c>
       <c r="E499">
-        <v>13237.65241325546</v>
+        <v>13237.65241325547</v>
       </c>
     </row>
     <row r="500" spans="1:5">
@@ -8854,7 +8854,7 @@
         <v>499</v>
       </c>
       <c r="B500">
-        <v>10843.96743863382</v>
+        <v>10843.96743863381</v>
       </c>
       <c r="C500">
         <v>10954.5656292953</v>
@@ -8863,7 +8863,7 @@
         <v>11325.16686204788</v>
       </c>
       <c r="E500">
-        <v>13237.65241325546</v>
+        <v>13237.65241325547</v>
       </c>
     </row>
     <row r="501" spans="1:5">
@@ -8871,13 +8871,13 @@
         <v>500</v>
       </c>
       <c r="B501">
-        <v>8513.639746543884</v>
+        <v>8513.639746543888</v>
       </c>
       <c r="C501">
         <v>8803.509203638874</v>
       </c>
       <c r="D501">
-        <v>9251.655725503109</v>
+        <v>9251.655725503108</v>
       </c>
       <c r="E501">
         <v>10572.02742149621</v>
